--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_14_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_14_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1597765.140131401</v>
+        <v>1637756.177671436</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4813841.518693743</v>
+        <v>4813841.518693744</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9327134.204923674</v>
+        <v>9327134.204923676</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7547198.688530251</v>
+        <v>7547198.688530253</v>
       </c>
     </row>
     <row r="11">
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>181.563513279305</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1417,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>166.905302944061</v>
       </c>
       <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
+        <v>12.10387899147748</v>
+      </c>
+      <c r="W11" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>26.44734313610378</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.3546685971475</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>102.6852488747809</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>38.7624819544391</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>153.3157426947255</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>99.51420419575433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>11.76236083691075</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="V13" t="n">
         <v>203.2347660485225</v>
       </c>
       <c r="W13" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>203.2347660485225</v>
       </c>
       <c r="Y13" t="n">
-        <v>179.0091819355386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,55 +1621,55 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>179.0091819355386</v>
+        <v>181.563513279305</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>33.77513176069503</v>
+      </c>
+      <c r="S14" t="n">
+        <v>166.905302944061</v>
+      </c>
+      <c r="T14" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="V14" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>27.80038649537615</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>102.6852488747809</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.7624819544391</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>98.79196582976181</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>66.38165386722093</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>203.2347660485225</v>
       </c>
       <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="W16" t="n">
-        <v>179.0091819355386</v>
-      </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4545853860211</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T17" t="n">
-        <v>12.64794961477073</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>222.2855108491283</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I18" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>86.46275728086181</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>224.4034240873793</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>25.89860244541948</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4545853860211</v>
+        <v>279.8462508478009</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S20" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>260.7601294881957</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I21" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>38.7624819544391</v>
       </c>
       <c r="S21" t="n">
-        <v>153.3157426947255</v>
+        <v>153.3157426947257</v>
       </c>
       <c r="T21" t="n">
         <v>196.1789750447687</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>86.46275728086167</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>180.5727887514168</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>87.78067934428465</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>127.9345535121577</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U23" t="n">
         <v>251.1978007375074</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I24" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>68.46716040995514</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T25" t="n">
         <v>224.4034240873793</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>165.7384500233298</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>376.7724555959322</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.4545853860211</v>
       </c>
       <c r="H26" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S26" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>215.005563618935</v>
@@ -2614,13 +2614,13 @@
         <v>251.1978007375074</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>177.1231281613664</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I27" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>34.74764850774388</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.2738102244793</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>215.9166715200358</v>
       </c>
       <c r="W28" t="n">
-        <v>75.53662446938003</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>288.7815090382317</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S29" t="n">
-        <v>58.22444438967716</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2891,7 +2891,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I30" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.1619619382476</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>130.5196601449082</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>127.0261566229243</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>215.9166715200359</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>413.4545853860211</v>
       </c>
       <c r="H32" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.08423325142279</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>235.7949503094802</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3128,7 +3128,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I33" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>86.46275728086169</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>224.4034240873793</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>215.9166715200359</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1439551526606</v>
+        <v>170.5317740868616</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4545853860211</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S35" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>215.005563618935</v>
@@ -3328,10 +3328,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.3546685971475</v>
+        <v>136.354668597148</v>
       </c>
       <c r="H36" t="n">
         <v>102.6852488747809</v>
       </c>
       <c r="I36" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>38.7624819544391</v>
       </c>
       <c r="S36" t="n">
-        <v>153.3157426947257</v>
+        <v>153.3157426947255</v>
       </c>
       <c r="T36" t="n">
         <v>196.1789750447687</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8763262542595</v>
+        <v>225.8763262542601</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>7.58040420372253</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>257.4609576074522</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>198.4652708457135</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>143.6931141843528</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4545853860211</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S38" t="n">
         <v>166.905302944061</v>
       </c>
       <c r="T38" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>102.6852488747809</v>
       </c>
       <c r="I39" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>38.7624819544391</v>
       </c>
       <c r="S39" t="n">
-        <v>153.3157426947252</v>
+        <v>153.3157426947255</v>
       </c>
       <c r="T39" t="n">
         <v>196.1789750447687</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>205.682695777305</v>
       </c>
     </row>
     <row r="40">
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>53.47771914673729</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.74313909201274</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>105.2758934987329</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,14 +3751,14 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>179.0091819355385</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>179.0091819355385</v>
-      </c>
       <c r="Y41" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>94.90907131182269</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>136.3546685971475</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>102.6852488747809</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>55.35075020406402</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.7624819544391</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>196.1789750447687</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>38.39132000958237</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
     </row>
     <row r="43">
@@ -3906,22 +3906,22 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0392500818427</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.1619619382476</v>
       </c>
       <c r="H43" t="n">
-        <v>13.74187328288654</v>
+        <v>154.8564539895622</v>
       </c>
       <c r="I43" t="n">
-        <v>130.5196601449082</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.74764850774388</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
       <c r="U43" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,17 +3976,17 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>145.2340501748434</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
@@ -3994,58 +3994,58 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>33.77513176069503</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>166.905302944061</v>
-      </c>
-      <c r="T44" t="n">
-        <v>12.10387899147748</v>
-      </c>
-      <c r="U44" t="n">
+      <c r="Y44" t="n">
         <v>203.2347660485225</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>102.6852488747809</v>
+        <v>69.45081264322206</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>153.3157426947255</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>196.1789750447687</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>5.299458357808951</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>203.2347660485225</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>130.5196601449082</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>140.017753555675</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>179.0091819355385</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.5202523090694</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>199.656269444796</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="C11" t="n">
-        <v>199.656269444796</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="D11" t="n">
-        <v>16.2587812838818</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="E11" t="n">
         <v>16.2587812838818</v>
@@ -5041,52 +5041,52 @@
         <v>16.2587812838818</v>
       </c>
       <c r="J11" t="n">
-        <v>159.7199905735174</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="K11" t="n">
-        <v>174.5720006188284</v>
+        <v>31.11079132919286</v>
       </c>
       <c r="L11" t="n">
-        <v>229.8989942425405</v>
+        <v>230.6987753319585</v>
       </c>
       <c r="M11" t="n">
-        <v>323.1303724634089</v>
+        <v>431.9011937199958</v>
       </c>
       <c r="N11" t="n">
-        <v>422.4841402331289</v>
+        <v>531.2549614897158</v>
       </c>
       <c r="O11" t="n">
-        <v>502.9658245494659</v>
+        <v>611.7366458060528</v>
       </c>
       <c r="P11" t="n">
-        <v>625.2460145659632</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="Q11" t="n">
         <v>812.9390641940902</v>
       </c>
       <c r="R11" t="n">
-        <v>778.8227694863174</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="S11" t="n">
-        <v>610.2315543913062</v>
+        <v>644.347849099079</v>
       </c>
       <c r="T11" t="n">
-        <v>404.9439119180511</v>
+        <v>644.347849099079</v>
       </c>
       <c r="U11" t="n">
-        <v>404.9439119180511</v>
+        <v>439.0602066258239</v>
       </c>
       <c r="V11" t="n">
-        <v>199.656269444796</v>
+        <v>426.8340662303921</v>
       </c>
       <c r="W11" t="n">
-        <v>199.656269444796</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="X11" t="n">
-        <v>199.656269444796</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.656269444796</v>
+        <v>221.5464237571369</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>712.4196660165605</v>
+        <v>245.417675964237</v>
       </c>
       <c r="C12" t="n">
-        <v>712.4196660165605</v>
+        <v>245.417675964237</v>
       </c>
       <c r="D12" t="n">
-        <v>563.4852563553093</v>
+        <v>218.7031879479706</v>
       </c>
       <c r="E12" t="n">
-        <v>404.2478013498538</v>
+        <v>218.7031879479706</v>
       </c>
       <c r="F12" t="n">
-        <v>257.7132433767388</v>
+        <v>72.16862997485558</v>
       </c>
       <c r="G12" t="n">
-        <v>119.9812548947716</v>
+        <v>72.16862997485558</v>
       </c>
       <c r="H12" t="n">
-        <v>16.2587812838818</v>
+        <v>72.16862997485558</v>
       </c>
       <c r="I12" t="n">
         <v>16.2587812838818</v>
@@ -5123,49 +5123,49 @@
         <v>16.2587812838818</v>
       </c>
       <c r="K12" t="n">
-        <v>37.87634126146366</v>
+        <v>189.0912094310992</v>
       </c>
       <c r="L12" t="n">
-        <v>113.2663595790752</v>
+        <v>264.4812277487107</v>
       </c>
       <c r="M12" t="n">
-        <v>220.5998232105567</v>
+        <v>465.6836461367481</v>
       </c>
       <c r="N12" t="n">
-        <v>345.182729159422</v>
+        <v>666.8860645247854</v>
       </c>
       <c r="O12" t="n">
-        <v>436.9319536576569</v>
+        <v>758.6352890230203</v>
       </c>
       <c r="P12" t="n">
-        <v>638.1343720456942</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="Q12" t="n">
         <v>812.9390641940902</v>
       </c>
       <c r="R12" t="n">
-        <v>812.9390641940902</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="S12" t="n">
-        <v>812.9390641940902</v>
+        <v>618.9206554575602</v>
       </c>
       <c r="T12" t="n">
-        <v>812.9390641940902</v>
+        <v>618.9206554575602</v>
       </c>
       <c r="U12" t="n">
-        <v>812.9390641940902</v>
+        <v>618.9206554575602</v>
       </c>
       <c r="V12" t="n">
-        <v>812.9390641940902</v>
+        <v>618.9206554575602</v>
       </c>
       <c r="W12" t="n">
-        <v>812.9390641940902</v>
+        <v>413.6330129843051</v>
       </c>
       <c r="X12" t="n">
-        <v>812.9390641940902</v>
+        <v>413.6330129843051</v>
       </c>
       <c r="Y12" t="n">
-        <v>712.4196660165605</v>
+        <v>413.6330129843051</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.2587812838818</v>
+        <v>185.1949642117887</v>
       </c>
       <c r="C13" t="n">
         <v>16.2587812838818</v>
@@ -5202,10 +5202,10 @@
         <v>16.2587812838818</v>
       </c>
       <c r="K13" t="n">
-        <v>89.56556804894518</v>
+        <v>89.56556804894535</v>
       </c>
       <c r="L13" t="n">
-        <v>238.8994510678577</v>
+        <v>238.8994510678579</v>
       </c>
       <c r="M13" t="n">
         <v>406.740215650389</v>
@@ -5226,25 +5226,25 @@
         <v>812.9390641940902</v>
       </c>
       <c r="S13" t="n">
-        <v>812.9390641940902</v>
+        <v>801.0578916315541</v>
       </c>
       <c r="T13" t="n">
-        <v>812.9390641940902</v>
+        <v>801.0578916315541</v>
       </c>
       <c r="U13" t="n">
-        <v>812.9390641940902</v>
+        <v>595.770249158299</v>
       </c>
       <c r="V13" t="n">
-        <v>607.6514217208351</v>
+        <v>390.4826066850438</v>
       </c>
       <c r="W13" t="n">
-        <v>402.3637792475799</v>
+        <v>390.4826066850438</v>
       </c>
       <c r="X13" t="n">
-        <v>197.0761367743248</v>
+        <v>185.1949642117887</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.2587812838818</v>
+        <v>185.1949642117887</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>402.3637792475799</v>
+        <v>199.656269444796</v>
       </c>
       <c r="C14" t="n">
-        <v>402.3637792475799</v>
+        <v>199.656269444796</v>
       </c>
       <c r="D14" t="n">
-        <v>402.3637792475799</v>
+        <v>199.656269444796</v>
       </c>
       <c r="E14" t="n">
-        <v>402.3637792475799</v>
+        <v>199.656269444796</v>
       </c>
       <c r="F14" t="n">
-        <v>402.3637792475799</v>
+        <v>199.656269444796</v>
       </c>
       <c r="G14" t="n">
-        <v>221.5464237571369</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H14" t="n">
         <v>16.2587812838818</v>
@@ -5278,16 +5278,16 @@
         <v>16.2587812838818</v>
       </c>
       <c r="J14" t="n">
-        <v>159.7199905735174</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="K14" t="n">
-        <v>304.4815608036632</v>
+        <v>196.5105206364944</v>
       </c>
       <c r="L14" t="n">
-        <v>505.6839791917005</v>
+        <v>397.7129390245317</v>
       </c>
       <c r="M14" t="n">
-        <v>598.9153574125689</v>
+        <v>598.9153574125691</v>
       </c>
       <c r="N14" t="n">
         <v>698.269125182289</v>
@@ -5302,28 +5302,28 @@
         <v>812.9390641940902</v>
       </c>
       <c r="R14" t="n">
-        <v>812.9390641940902</v>
+        <v>778.8227694863174</v>
       </c>
       <c r="S14" t="n">
-        <v>812.9390641940902</v>
+        <v>610.2315543913062</v>
       </c>
       <c r="T14" t="n">
-        <v>812.9390641940902</v>
+        <v>404.9439119180511</v>
       </c>
       <c r="U14" t="n">
-        <v>812.9390641940902</v>
+        <v>199.656269444796</v>
       </c>
       <c r="V14" t="n">
-        <v>607.6514217208351</v>
+        <v>199.656269444796</v>
       </c>
       <c r="W14" t="n">
-        <v>402.3637792475799</v>
+        <v>199.656269444796</v>
       </c>
       <c r="X14" t="n">
-        <v>402.3637792475799</v>
+        <v>199.656269444796</v>
       </c>
       <c r="Y14" t="n">
-        <v>402.3637792475799</v>
+        <v>199.656269444796</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>339.6462202262601</v>
+        <v>363.2097570713788</v>
       </c>
       <c r="C15" t="n">
-        <v>165.1931909451331</v>
+        <v>363.2097570713788</v>
       </c>
       <c r="D15" t="n">
-        <v>16.2587812838818</v>
+        <v>335.1285585912009</v>
       </c>
       <c r="E15" t="n">
-        <v>16.2587812838818</v>
+        <v>175.8911035857454</v>
       </c>
       <c r="F15" t="n">
-        <v>16.2587812838818</v>
+        <v>175.8911035857454</v>
       </c>
       <c r="G15" t="n">
-        <v>16.2587812838818</v>
+        <v>175.8911035857454</v>
       </c>
       <c r="H15" t="n">
-        <v>16.2587812838818</v>
+        <v>72.16862997485558</v>
       </c>
       <c r="I15" t="n">
         <v>16.2587812838818</v>
       </c>
       <c r="J15" t="n">
-        <v>16.2587812838818</v>
+        <v>108.0099150461124</v>
       </c>
       <c r="K15" t="n">
-        <v>217.4611996719191</v>
+        <v>129.6274750236942</v>
       </c>
       <c r="L15" t="n">
-        <v>292.8512179895307</v>
+        <v>264.4812277487107</v>
       </c>
       <c r="M15" t="n">
-        <v>400.1846816210121</v>
+        <v>465.6836461367481</v>
       </c>
       <c r="N15" t="n">
-        <v>524.7675875698775</v>
+        <v>666.8860645247854</v>
       </c>
       <c r="O15" t="n">
-        <v>725.9700059579149</v>
+        <v>758.6352890230203</v>
       </c>
       <c r="P15" t="n">
         <v>812.9390641940902</v>
@@ -5381,28 +5381,28 @@
         <v>812.9390641940902</v>
       </c>
       <c r="R15" t="n">
-        <v>812.9390641940902</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="S15" t="n">
-        <v>812.9390641940902</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="T15" t="n">
-        <v>713.1491997195833</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="U15" t="n">
-        <v>713.1491997195833</v>
+        <v>568.4973995446339</v>
       </c>
       <c r="V15" t="n">
-        <v>507.8615572463281</v>
+        <v>568.4973995446339</v>
       </c>
       <c r="W15" t="n">
-        <v>507.8615572463281</v>
+        <v>363.2097570713788</v>
       </c>
       <c r="X15" t="n">
-        <v>507.8615572463281</v>
+        <v>363.2097570713788</v>
       </c>
       <c r="Y15" t="n">
-        <v>507.8615572463281</v>
+        <v>363.2097570713788</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.2587812838818</v>
+        <v>402.3637792475799</v>
       </c>
       <c r="C16" t="n">
-        <v>16.2587812838818</v>
+        <v>233.427596319673</v>
       </c>
       <c r="D16" t="n">
-        <v>16.2587812838818</v>
+        <v>83.3109569073373</v>
       </c>
       <c r="E16" t="n">
         <v>16.2587812838818</v>
@@ -5445,10 +5445,10 @@
         <v>238.8994510678577</v>
       </c>
       <c r="M16" t="n">
-        <v>406.740215650389</v>
+        <v>406.7402156503889</v>
       </c>
       <c r="N16" t="n">
-        <v>576.0247184155553</v>
+        <v>576.0247184155552</v>
       </c>
       <c r="O16" t="n">
         <v>716.3700606954424</v>
@@ -5472,16 +5472,16 @@
         <v>607.6514217208351</v>
       </c>
       <c r="V16" t="n">
+        <v>607.6514217208351</v>
+      </c>
+      <c r="W16" t="n">
         <v>402.3637792475799</v>
       </c>
-      <c r="W16" t="n">
-        <v>221.5464237571369</v>
-      </c>
       <c r="X16" t="n">
-        <v>221.5464237571369</v>
+        <v>402.3637792475799</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.2587812838818</v>
+        <v>402.3637792475799</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1609.315979126338</v>
+        <v>921.3304977980627</v>
       </c>
       <c r="C17" t="n">
-        <v>1240.353462185926</v>
+        <v>552.367980857651</v>
       </c>
       <c r="D17" t="n">
-        <v>882.0877635791758</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="E17" t="n">
-        <v>882.0877635791758</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="F17" t="n">
-        <v>471.1018587895682</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="G17" t="n">
-        <v>53.47096446025395</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="H17" t="n">
-        <v>53.47096446025395</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="I17" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J17" t="n">
-        <v>53.47096446025395</v>
+        <v>196.9321737498895</v>
       </c>
       <c r="K17" t="n">
-        <v>389.2269329510181</v>
+        <v>454.804459577637</v>
       </c>
       <c r="L17" t="n">
-        <v>858.0385289796761</v>
+        <v>923.6160556062949</v>
       </c>
       <c r="M17" t="n">
-        <v>1396.288305358449</v>
+        <v>1461.865831985067</v>
       </c>
       <c r="N17" t="n">
-        <v>1863.30538346101</v>
+        <v>1994.193054922652</v>
       </c>
       <c r="O17" t="n">
-        <v>2320.779247227465</v>
+        <v>2451.666918689107</v>
       </c>
       <c r="P17" t="n">
-        <v>2673.548223012697</v>
+        <v>2485.855173384571</v>
       </c>
       <c r="Q17" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R17" t="n">
-        <v>2639.431928304924</v>
+        <v>2639.431928304925</v>
       </c>
       <c r="S17" t="n">
-        <v>2639.431928304924</v>
+        <v>2470.840713209914</v>
       </c>
       <c r="T17" t="n">
-        <v>2626.656221623338</v>
+        <v>2253.66337622109</v>
       </c>
       <c r="U17" t="n">
-        <v>2372.921069363229</v>
+        <v>2253.66337622109</v>
       </c>
       <c r="V17" t="n">
-        <v>2372.921069363229</v>
+        <v>1922.60048887752</v>
       </c>
       <c r="W17" t="n">
-        <v>2372.921069363229</v>
+        <v>1922.60048887752</v>
       </c>
       <c r="X17" t="n">
-        <v>1999.45531110215</v>
+        <v>1698.069669837996</v>
       </c>
       <c r="Y17" t="n">
-        <v>1609.315979126338</v>
+        <v>1307.930337862184</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.9947271650334</v>
+        <v>979.9947271650335</v>
       </c>
       <c r="C18" t="n">
-        <v>805.5416978839064</v>
+        <v>805.5416978839065</v>
       </c>
       <c r="D18" t="n">
-        <v>656.6072882226551</v>
+        <v>656.6072882226553</v>
       </c>
       <c r="E18" t="n">
-        <v>497.3698332171997</v>
+        <v>497.3698332171998</v>
       </c>
       <c r="F18" t="n">
-        <v>350.8352752440846</v>
+        <v>350.8352752440847</v>
       </c>
       <c r="G18" t="n">
-        <v>213.1032867621175</v>
+        <v>213.1032867621176</v>
       </c>
       <c r="H18" t="n">
         <v>109.3808131512277</v>
@@ -5594,43 +5594,43 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J18" t="n">
-        <v>53.47096446025395</v>
+        <v>145.2220982224845</v>
       </c>
       <c r="K18" t="n">
-        <v>336.9091090802886</v>
+        <v>428.6602428425192</v>
       </c>
       <c r="L18" t="n">
-        <v>779.4310692483248</v>
+        <v>871.1822030105552</v>
       </c>
       <c r="M18" t="n">
-        <v>1347.812545992306</v>
+        <v>1344.081716670644</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.935432266089</v>
+        <v>1943.213573219628</v>
       </c>
       <c r="O18" t="n">
-        <v>2109.608352848286</v>
+        <v>2424.886493801825</v>
       </c>
       <c r="P18" t="n">
-        <v>2479.190268972894</v>
+        <v>2479.190268972895</v>
       </c>
       <c r="Q18" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R18" t="n">
-        <v>2634.394200836496</v>
+        <v>2634.394200836497</v>
       </c>
       <c r="S18" t="n">
-        <v>2479.529814276167</v>
+        <v>2479.529814276168</v>
       </c>
       <c r="T18" t="n">
-        <v>2281.369233422865</v>
+        <v>2281.369233422866</v>
       </c>
       <c r="U18" t="n">
-        <v>2053.211328115532</v>
+        <v>2053.211328115533</v>
       </c>
       <c r="V18" t="n">
-        <v>1818.059219883789</v>
+        <v>1818.05921988379</v>
       </c>
       <c r="W18" t="n">
         <v>1563.821863155588</v>
@@ -5639,7 +5639,7 @@
         <v>1355.970362950055</v>
       </c>
       <c r="Y18" t="n">
-        <v>1148.210064185101</v>
+        <v>1148.210064185102</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.8070829257709</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="C19" t="n">
         <v>53.47096446025395</v>
@@ -5688,37 +5688,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O19" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P19" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q19" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R19" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S19" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="T19" t="n">
-        <v>623.4811220296751</v>
+        <v>623.481122029675</v>
       </c>
       <c r="U19" t="n">
-        <v>623.4811220296751</v>
+        <v>334.3156571564635</v>
       </c>
       <c r="V19" t="n">
-        <v>368.7966338237883</v>
+        <v>79.63116895057667</v>
       </c>
       <c r="W19" t="n">
-        <v>368.7966338237883</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="X19" t="n">
-        <v>140.8070829257709</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.8070829257709</v>
+        <v>53.47096446025395</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>840.0643757299799</v>
+        <v>1955.60038569124</v>
       </c>
       <c r="C20" t="n">
-        <v>471.1018587895682</v>
+        <v>1955.60038569124</v>
       </c>
       <c r="D20" t="n">
-        <v>471.1018587895682</v>
+        <v>1597.33468708449</v>
       </c>
       <c r="E20" t="n">
-        <v>471.1018587895682</v>
+        <v>1211.546434486245</v>
       </c>
       <c r="F20" t="n">
-        <v>471.1018587895682</v>
+        <v>800.5605296966378</v>
       </c>
       <c r="G20" t="n">
-        <v>53.47096446025395</v>
+        <v>517.8875490422934</v>
       </c>
       <c r="H20" t="n">
-        <v>53.47096446025395</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="I20" t="n">
         <v>53.47096446025395</v>
@@ -5758,46 +5758,46 @@
         <v>532.6881422406536</v>
       </c>
       <c r="L20" t="n">
-        <v>1001.499738269312</v>
+        <v>923.6160556062949</v>
       </c>
       <c r="M20" t="n">
-        <v>1143.285110895299</v>
+        <v>1461.865831985067</v>
       </c>
       <c r="N20" t="n">
-        <v>1675.612333832883</v>
+        <v>1994.193054922652</v>
       </c>
       <c r="O20" t="n">
-        <v>2133.086197599338</v>
+        <v>2451.666918689107</v>
       </c>
       <c r="P20" t="n">
-        <v>2485.85517338457</v>
+        <v>2485.855173384571</v>
       </c>
       <c r="Q20" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R20" t="n">
-        <v>2639.431928304924</v>
+        <v>2639.431928304925</v>
       </c>
       <c r="S20" t="n">
-        <v>2470.840713209913</v>
+        <v>2639.431928304925</v>
       </c>
       <c r="T20" t="n">
-        <v>2253.66337622109</v>
+        <v>2639.431928304925</v>
       </c>
       <c r="U20" t="n">
-        <v>2253.66337622109</v>
+        <v>2639.431928304925</v>
       </c>
       <c r="V20" t="n">
-        <v>2253.66337622109</v>
+        <v>2308.369040961354</v>
       </c>
       <c r="W20" t="n">
-        <v>1990.269306030993</v>
+        <v>1955.60038569124</v>
       </c>
       <c r="X20" t="n">
-        <v>1616.803547769913</v>
+        <v>1955.60038569124</v>
       </c>
       <c r="Y20" t="n">
-        <v>1226.664215794102</v>
+        <v>1955.60038569124</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>979.9947271650335</v>
       </c>
       <c r="C21" t="n">
-        <v>805.5416978839064</v>
+        <v>805.5416978839065</v>
       </c>
       <c r="D21" t="n">
         <v>656.6072882226551</v>
@@ -5831,28 +5831,28 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J21" t="n">
-        <v>145.2220982224846</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="K21" t="n">
-        <v>428.6602428425192</v>
+        <v>336.9091090802885</v>
       </c>
       <c r="L21" t="n">
-        <v>871.1822030105553</v>
+        <v>779.4310692483247</v>
       </c>
       <c r="M21" t="n">
-        <v>1439.563679754537</v>
+        <v>1347.812545992306</v>
       </c>
       <c r="N21" t="n">
-        <v>1627.935432266089</v>
+        <v>1627.93543226609</v>
       </c>
       <c r="O21" t="n">
-        <v>2109.608352848286</v>
+        <v>2109.608352848287</v>
       </c>
       <c r="P21" t="n">
-        <v>2479.190268972894</v>
+        <v>2479.190268972895</v>
       </c>
       <c r="Q21" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R21" t="n">
         <v>2634.394200836497</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>201.3840580426471</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="C22" t="n">
-        <v>201.3840580426471</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="D22" t="n">
-        <v>201.3840580426471</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="E22" t="n">
         <v>53.47096446025395</v>
@@ -5925,37 +5925,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O22" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P22" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q22" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R22" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S22" t="n">
-        <v>638.4653025630963</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="T22" t="n">
-        <v>638.4653025630963</v>
+        <v>623.481122029675</v>
       </c>
       <c r="U22" t="n">
-        <v>638.4653025630963</v>
+        <v>536.1450035641582</v>
       </c>
       <c r="V22" t="n">
-        <v>383.7808143572095</v>
+        <v>281.4605153582713</v>
       </c>
       <c r="W22" t="n">
-        <v>201.3840580426471</v>
+        <v>281.4605153582713</v>
       </c>
       <c r="X22" t="n">
-        <v>201.3840580426471</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="Y22" t="n">
-        <v>201.3840580426471</v>
+        <v>53.47096446025395</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>551.6603031301179</v>
+        <v>883.5544784539759</v>
       </c>
       <c r="C23" t="n">
-        <v>182.6977861897062</v>
+        <v>883.5544784539759</v>
       </c>
       <c r="D23" t="n">
-        <v>182.6977861897062</v>
+        <v>883.5544784539759</v>
       </c>
       <c r="E23" t="n">
-        <v>182.6977861897062</v>
+        <v>794.8871255809611</v>
       </c>
       <c r="F23" t="n">
-        <v>182.6977861897062</v>
+        <v>794.8871255809611</v>
       </c>
       <c r="G23" t="n">
-        <v>53.47096446025395</v>
+        <v>377.2562312516467</v>
       </c>
       <c r="H23" t="n">
         <v>53.47096446025395</v>
@@ -5998,16 +5998,16 @@
         <v>1001.499738269312</v>
       </c>
       <c r="M23" t="n">
-        <v>1143.285110895299</v>
+        <v>1330.978160523426</v>
       </c>
       <c r="N23" t="n">
-        <v>1675.612333832883</v>
+        <v>1863.30538346101</v>
       </c>
       <c r="O23" t="n">
-        <v>2133.086197599338</v>
+        <v>2320.779247227465</v>
       </c>
       <c r="P23" t="n">
-        <v>2485.85517338457</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="Q23" t="n">
         <v>2673.548223012697</v>
@@ -6016,25 +6016,25 @@
         <v>2639.431928304924</v>
       </c>
       <c r="S23" t="n">
-        <v>2639.431928304924</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="T23" t="n">
-        <v>2639.431928304924</v>
+        <v>2253.66337622109</v>
       </c>
       <c r="U23" t="n">
-        <v>2385.696776044816</v>
+        <v>1999.928223960982</v>
       </c>
       <c r="V23" t="n">
-        <v>2054.633888701245</v>
+        <v>1999.928223960982</v>
       </c>
       <c r="W23" t="n">
-        <v>1701.865233431131</v>
+        <v>1647.159568690867</v>
       </c>
       <c r="X23" t="n">
-        <v>1328.399475170051</v>
+        <v>1273.693810429788</v>
       </c>
       <c r="Y23" t="n">
-        <v>938.2601431942396</v>
+        <v>883.5544784539759</v>
       </c>
     </row>
     <row r="24">
@@ -6068,13 +6068,13 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J24" t="n">
-        <v>53.47096446025395</v>
+        <v>145.2220982224845</v>
       </c>
       <c r="K24" t="n">
-        <v>336.9091090802886</v>
+        <v>428.6602428425192</v>
       </c>
       <c r="L24" t="n">
-        <v>654.7800530129279</v>
+        <v>871.1822030105552</v>
       </c>
       <c r="M24" t="n">
         <v>1223.161529756909</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>201.3840580426471</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="C25" t="n">
-        <v>201.3840580426471</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="D25" t="n">
-        <v>201.3840580426471</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="E25" t="n">
         <v>53.47096446025395</v>
@@ -6162,37 +6162,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O25" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P25" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q25" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R25" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S25" t="n">
-        <v>850.1512473704623</v>
+        <v>638.4653025630962</v>
       </c>
       <c r="T25" t="n">
-        <v>623.4811220296751</v>
+        <v>411.795177222309</v>
       </c>
       <c r="U25" t="n">
-        <v>623.4811220296751</v>
+        <v>122.6297123490975</v>
       </c>
       <c r="V25" t="n">
-        <v>368.7966338237883</v>
+        <v>122.6297123490975</v>
       </c>
       <c r="W25" t="n">
-        <v>368.7966338237883</v>
+        <v>122.6297123490975</v>
       </c>
       <c r="X25" t="n">
-        <v>201.3840580426471</v>
+        <v>122.6297123490975</v>
       </c>
       <c r="Y25" t="n">
-        <v>201.3840580426471</v>
+        <v>122.6297123490975</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>935.5184433716075</v>
+        <v>1636.838533117832</v>
       </c>
       <c r="C26" t="n">
-        <v>935.5184433716075</v>
+        <v>1267.87601617742</v>
       </c>
       <c r="D26" t="n">
-        <v>935.5184433716075</v>
+        <v>1267.87601617742</v>
       </c>
       <c r="E26" t="n">
-        <v>935.5184433716075</v>
+        <v>882.0877635791758</v>
       </c>
       <c r="F26" t="n">
-        <v>935.5184433716075</v>
+        <v>471.1018587895682</v>
       </c>
       <c r="G26" t="n">
-        <v>517.8875490422932</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="H26" t="n">
-        <v>194.1022822509005</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="I26" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J26" t="n">
-        <v>53.47096446025395</v>
+        <v>196.9321737498895</v>
       </c>
       <c r="K26" t="n">
-        <v>389.2269329510181</v>
+        <v>532.6881422406536</v>
       </c>
       <c r="L26" t="n">
-        <v>792.7283841446532</v>
+        <v>1001.499738269312</v>
       </c>
       <c r="M26" t="n">
-        <v>1330.978160523426</v>
+        <v>1539.749514648084</v>
       </c>
       <c r="N26" t="n">
-        <v>1863.30538346101</v>
+        <v>1675.612333832883</v>
       </c>
       <c r="O26" t="n">
-        <v>2320.779247227465</v>
+        <v>2133.086197599338</v>
       </c>
       <c r="P26" t="n">
-        <v>2673.548223012697</v>
+        <v>2485.85517338457</v>
       </c>
       <c r="Q26" t="n">
         <v>2673.548223012697</v>
@@ -6253,25 +6253,25 @@
         <v>2639.431928304924</v>
       </c>
       <c r="S26" t="n">
-        <v>2470.840713209913</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="T26" t="n">
-        <v>2253.66337622109</v>
+        <v>2422.254591316101</v>
       </c>
       <c r="U26" t="n">
-        <v>1999.928223960982</v>
+        <v>2168.519439055993</v>
       </c>
       <c r="V26" t="n">
-        <v>1668.865336617411</v>
+        <v>2168.519439055993</v>
       </c>
       <c r="W26" t="n">
-        <v>1316.096681347297</v>
+        <v>1815.750783785879</v>
       </c>
       <c r="X26" t="n">
-        <v>1316.096681347297</v>
+        <v>1636.838533117832</v>
       </c>
       <c r="Y26" t="n">
-        <v>1316.096681347297</v>
+        <v>1636.838533117832</v>
       </c>
     </row>
     <row r="27">
@@ -6296,28 +6296,28 @@
         <v>350.835275244084</v>
       </c>
       <c r="G27" t="n">
-        <v>213.103286762117</v>
+        <v>213.1032867621175</v>
       </c>
       <c r="H27" t="n">
-        <v>109.3808131512274</v>
+        <v>109.3808131512277</v>
       </c>
       <c r="I27" t="n">
         <v>53.47096446025395</v>
       </c>
       <c r="J27" t="n">
-        <v>145.2220982224846</v>
+        <v>145.2220982224845</v>
       </c>
       <c r="K27" t="n">
         <v>428.6602428425192</v>
       </c>
       <c r="L27" t="n">
-        <v>871.1822030105553</v>
+        <v>871.1822030105552</v>
       </c>
       <c r="M27" t="n">
-        <v>1418.727271801068</v>
+        <v>1439.563679754537</v>
       </c>
       <c r="N27" t="n">
-        <v>2017.859128350051</v>
+        <v>1627.935432266089</v>
       </c>
       <c r="O27" t="n">
         <v>2109.608352848286</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="C28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="D28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="E28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="F28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="G28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="H28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="I28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="J28" t="n">
         <v>53.47096446025395</v>
@@ -6399,37 +6399,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O28" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P28" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q28" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R28" t="n">
-        <v>708.7191730718007</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S28" t="n">
-        <v>708.7191730718007</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="T28" t="n">
-        <v>708.7191730718007</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="U28" t="n">
-        <v>419.5537081985892</v>
+        <v>560.9857824972507</v>
       </c>
       <c r="V28" t="n">
-        <v>164.8692199927023</v>
+        <v>342.8881344972145</v>
       </c>
       <c r="W28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="X28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="Y28" t="n">
-        <v>88.5695993165609</v>
+        <v>53.47096446025395</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>780.6991800074161</v>
+        <v>714.1319753786775</v>
       </c>
       <c r="C29" t="n">
-        <v>411.7366630670044</v>
+        <v>345.1694584382657</v>
       </c>
       <c r="D29" t="n">
-        <v>53.47096446025395</v>
+        <v>345.1694584382657</v>
       </c>
       <c r="E29" t="n">
-        <v>53.47096446025395</v>
+        <v>345.1694584382657</v>
       </c>
       <c r="F29" t="n">
-        <v>53.47096446025395</v>
+        <v>345.1694584382657</v>
       </c>
       <c r="G29" t="n">
-        <v>53.47096446025395</v>
+        <v>345.1694584382657</v>
       </c>
       <c r="H29" t="n">
         <v>53.47096446025395</v>
@@ -6463,10 +6463,10 @@
         <v>53.47096446025395</v>
       </c>
       <c r="J29" t="n">
-        <v>121.3717284425575</v>
+        <v>196.9321737498895</v>
       </c>
       <c r="K29" t="n">
-        <v>136.2237384878686</v>
+        <v>532.6881422406536</v>
       </c>
       <c r="L29" t="n">
         <v>605.0353345165266</v>
@@ -6487,28 +6487,28 @@
         <v>2673.548223012697</v>
       </c>
       <c r="R29" t="n">
-        <v>2673.548223012697</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="S29" t="n">
-        <v>2614.735652922114</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="T29" t="n">
-        <v>2614.735652922114</v>
+        <v>2470.840713209913</v>
       </c>
       <c r="U29" t="n">
-        <v>2614.735652922114</v>
+        <v>2217.105560949805</v>
       </c>
       <c r="V29" t="n">
-        <v>2283.672765578543</v>
+        <v>2217.105560949805</v>
       </c>
       <c r="W29" t="n">
-        <v>1930.904110308429</v>
+        <v>1864.336905679691</v>
       </c>
       <c r="X29" t="n">
-        <v>1557.43835204735</v>
+        <v>1490.871147418611</v>
       </c>
       <c r="Y29" t="n">
-        <v>1167.299020071538</v>
+        <v>1100.731815442799</v>
       </c>
     </row>
     <row r="30">
@@ -6533,10 +6533,10 @@
         <v>350.835275244084</v>
       </c>
       <c r="G30" t="n">
-        <v>213.1032867621175</v>
+        <v>213.103286762117</v>
       </c>
       <c r="H30" t="n">
-        <v>109.3808131512277</v>
+        <v>109.3808131512274</v>
       </c>
       <c r="I30" t="n">
         <v>53.47096446025395</v>
@@ -6545,7 +6545,7 @@
         <v>53.47096446025395</v>
       </c>
       <c r="K30" t="n">
-        <v>336.9091090802886</v>
+        <v>212.2580928448917</v>
       </c>
       <c r="L30" t="n">
         <v>654.7800530129279</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.47096446025395</v>
+        <v>501.0494191128671</v>
       </c>
       <c r="C31" t="n">
-        <v>53.47096446025395</v>
+        <v>501.0494191128671</v>
       </c>
       <c r="D31" t="n">
-        <v>53.47096446025395</v>
+        <v>501.0494191128671</v>
       </c>
       <c r="E31" t="n">
-        <v>53.47096446025395</v>
+        <v>501.0494191128671</v>
       </c>
       <c r="F31" t="n">
-        <v>53.47096446025395</v>
+        <v>354.1594716149568</v>
       </c>
       <c r="G31" t="n">
-        <v>53.47096446025395</v>
+        <v>185.3090050106663</v>
       </c>
       <c r="H31" t="n">
-        <v>53.47096446025395</v>
+        <v>185.3090050106663</v>
       </c>
       <c r="I31" t="n">
         <v>53.47096446025395</v>
@@ -6636,37 +6636,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O31" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P31" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q31" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R31" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S31" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="T31" t="n">
-        <v>850.1512473704623</v>
+        <v>721.8419982563972</v>
       </c>
       <c r="U31" t="n">
-        <v>560.9857824972509</v>
+        <v>721.8419982563972</v>
       </c>
       <c r="V31" t="n">
-        <v>560.9857824972509</v>
+        <v>721.8419982563972</v>
       </c>
       <c r="W31" t="n">
-        <v>271.5686124602902</v>
+        <v>721.8419982563972</v>
       </c>
       <c r="X31" t="n">
-        <v>271.5686124602902</v>
+        <v>721.8419982563972</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.47096446025395</v>
+        <v>501.0494191128671</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1564.138728977319</v>
+        <v>1251.050280519587</v>
       </c>
       <c r="C32" t="n">
-        <v>1564.138728977319</v>
+        <v>882.0877635791758</v>
       </c>
       <c r="D32" t="n">
-        <v>1205.873030370569</v>
+        <v>882.0877635791758</v>
       </c>
       <c r="E32" t="n">
-        <v>1205.873030370569</v>
+        <v>882.0877635791758</v>
       </c>
       <c r="F32" t="n">
-        <v>794.8871255809611</v>
+        <v>471.1018587895682</v>
       </c>
       <c r="G32" t="n">
-        <v>377.2562312516467</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="H32" t="n">
         <v>53.47096446025395</v>
@@ -6712,40 +6712,40 @@
         <v>1539.749514648084</v>
       </c>
       <c r="N32" t="n">
-        <v>1675.612333832883</v>
+        <v>2072.076737585669</v>
       </c>
       <c r="O32" t="n">
-        <v>2133.086197599338</v>
+        <v>2529.550601352124</v>
       </c>
       <c r="P32" t="n">
-        <v>2485.85517338457</v>
+        <v>2673.548223012697</v>
       </c>
       <c r="Q32" t="n">
         <v>2673.548223012697</v>
       </c>
       <c r="R32" t="n">
-        <v>2673.548223012697</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="S32" t="n">
-        <v>2673.548223012697</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="T32" t="n">
-        <v>2638.109603566816</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="U32" t="n">
-        <v>2638.109603566816</v>
+        <v>2639.431928304924</v>
       </c>
       <c r="V32" t="n">
-        <v>2307.046716223245</v>
+        <v>2401.255210820601</v>
       </c>
       <c r="W32" t="n">
-        <v>1954.278060953131</v>
+        <v>2401.255210820601</v>
       </c>
       <c r="X32" t="n">
-        <v>1954.278060953131</v>
+        <v>2027.789452559521</v>
       </c>
       <c r="Y32" t="n">
-        <v>1564.138728977319</v>
+        <v>1637.650120583709</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.9947271650331</v>
+        <v>979.9947271650334</v>
       </c>
       <c r="C33" t="n">
-        <v>805.5416978839061</v>
+        <v>805.5416978839064</v>
       </c>
       <c r="D33" t="n">
-        <v>656.6072882226548</v>
+        <v>656.6072882226551</v>
       </c>
       <c r="E33" t="n">
-        <v>497.3698332171993</v>
+        <v>497.3698332171997</v>
       </c>
       <c r="F33" t="n">
-        <v>350.8352752440843</v>
+        <v>350.8352752440846</v>
       </c>
       <c r="G33" t="n">
-        <v>213.1032867621172</v>
+        <v>213.1032867621175</v>
       </c>
       <c r="H33" t="n">
-        <v>109.3808131512273</v>
+        <v>109.3808131512277</v>
       </c>
       <c r="I33" t="n">
-        <v>53.47096446025358</v>
+        <v>53.47096446025395</v>
       </c>
       <c r="J33" t="n">
-        <v>53.47096446025395</v>
+        <v>145.2220982224845</v>
       </c>
       <c r="K33" t="n">
-        <v>212.2580928448917</v>
+        <v>428.6602428425192</v>
       </c>
       <c r="L33" t="n">
-        <v>654.7800530129279</v>
+        <v>871.1822030105552</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.161529756909</v>
+        <v>1439.563679754537</v>
       </c>
       <c r="N33" t="n">
-        <v>1822.293386305892</v>
+        <v>1627.93543226609</v>
       </c>
       <c r="O33" t="n">
-        <v>2303.96630688809</v>
+        <v>2109.608352848287</v>
       </c>
       <c r="P33" t="n">
-        <v>2673.548223012697</v>
+        <v>2479.190268972895</v>
       </c>
       <c r="Q33" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R33" t="n">
-        <v>2634.394200836496</v>
+        <v>2634.394200836497</v>
       </c>
       <c r="S33" t="n">
-        <v>2479.529814276167</v>
+        <v>2479.529814276168</v>
       </c>
       <c r="T33" t="n">
-        <v>2281.369233422865</v>
+        <v>2281.369233422866</v>
       </c>
       <c r="U33" t="n">
-        <v>2053.211328115532</v>
+        <v>2053.211328115533</v>
       </c>
       <c r="V33" t="n">
-        <v>1818.059219883789</v>
+        <v>1818.05921988379</v>
       </c>
       <c r="W33" t="n">
         <v>1563.821863155588</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.47096446025395</v>
+        <v>140.8070829257708</v>
       </c>
       <c r="C34" t="n">
-        <v>53.47096446025395</v>
+        <v>140.8070829257708</v>
       </c>
       <c r="D34" t="n">
-        <v>53.47096446025395</v>
+        <v>140.8070829257708</v>
       </c>
       <c r="E34" t="n">
-        <v>53.47096446025395</v>
+        <v>140.8070829257708</v>
       </c>
       <c r="F34" t="n">
-        <v>53.47096446025395</v>
+        <v>140.8070829257708</v>
       </c>
       <c r="G34" t="n">
-        <v>53.47096446025395</v>
+        <v>140.8070829257708</v>
       </c>
       <c r="H34" t="n">
         <v>53.47096446025395</v>
@@ -6873,37 +6873,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O34" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P34" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q34" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R34" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S34" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="T34" t="n">
-        <v>850.1512473704623</v>
+        <v>623.481122029675</v>
       </c>
       <c r="U34" t="n">
-        <v>560.9857824972509</v>
+        <v>623.481122029675</v>
       </c>
       <c r="V34" t="n">
-        <v>342.8881344972145</v>
+        <v>368.7966338237882</v>
       </c>
       <c r="W34" t="n">
-        <v>53.47096446025395</v>
+        <v>368.7966338237882</v>
       </c>
       <c r="X34" t="n">
-        <v>53.47096446025395</v>
+        <v>140.8070829257708</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.47096446025395</v>
+        <v>140.8070829257708</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1282.265496553289</v>
+        <v>724.6222981171072</v>
       </c>
       <c r="C35" t="n">
-        <v>1282.265496553289</v>
+        <v>724.6222981171072</v>
       </c>
       <c r="D35" t="n">
-        <v>923.9997979465386</v>
+        <v>366.3565995103567</v>
       </c>
       <c r="E35" t="n">
-        <v>923.9997979465386</v>
+        <v>366.3565995103567</v>
       </c>
       <c r="F35" t="n">
-        <v>611.7331765802147</v>
+        <v>194.1022822509005</v>
       </c>
       <c r="G35" t="n">
         <v>194.1022822509005</v>
@@ -6934,55 +6934,55 @@
         <v>194.1022822509005</v>
       </c>
       <c r="I35" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="J35" t="n">
-        <v>196.9321737498895</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="K35" t="n">
-        <v>323.9167881159952</v>
+        <v>389.2269329510181</v>
       </c>
       <c r="L35" t="n">
-        <v>792.7283841446532</v>
+        <v>858.0385289796761</v>
       </c>
       <c r="M35" t="n">
-        <v>1330.978160523426</v>
+        <v>1396.288305358449</v>
       </c>
       <c r="N35" t="n">
-        <v>1863.30538346101</v>
+        <v>1928.615528296033</v>
       </c>
       <c r="O35" t="n">
-        <v>2320.779247227465</v>
+        <v>2386.089392062488</v>
       </c>
       <c r="P35" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="Q35" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R35" t="n">
-        <v>2639.431928304924</v>
+        <v>2639.431928304925</v>
       </c>
       <c r="S35" t="n">
-        <v>2470.840713209913</v>
+        <v>2639.431928304925</v>
       </c>
       <c r="T35" t="n">
-        <v>2253.66337622109</v>
+        <v>2422.254591316102</v>
       </c>
       <c r="U35" t="n">
-        <v>1999.928223960982</v>
+        <v>2168.519439055994</v>
       </c>
       <c r="V35" t="n">
-        <v>1668.865336617411</v>
+        <v>1837.456551712423</v>
       </c>
       <c r="W35" t="n">
-        <v>1668.865336617411</v>
+        <v>1484.687896442309</v>
       </c>
       <c r="X35" t="n">
-        <v>1668.865336617411</v>
+        <v>1111.222138181229</v>
       </c>
       <c r="Y35" t="n">
-        <v>1668.865336617411</v>
+        <v>1111.222138181229</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.9947271650334</v>
+        <v>979.994727165034</v>
       </c>
       <c r="C36" t="n">
-        <v>805.5416978839064</v>
+        <v>805.541697883907</v>
       </c>
       <c r="D36" t="n">
-        <v>656.6072882226551</v>
+        <v>656.6072882226557</v>
       </c>
       <c r="E36" t="n">
-        <v>497.3698332171996</v>
+        <v>497.3698332172002</v>
       </c>
       <c r="F36" t="n">
-        <v>350.8352752440846</v>
+        <v>350.8352752440852</v>
       </c>
       <c r="G36" t="n">
-        <v>213.1032867621175</v>
+        <v>213.1032867621176</v>
       </c>
       <c r="H36" t="n">
         <v>109.3808131512277</v>
       </c>
       <c r="I36" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="J36" t="n">
         <v>145.2220982224846</v>
@@ -7025,28 +7025,28 @@
         <v>871.1822030105553</v>
       </c>
       <c r="M36" t="n">
-        <v>1028.803575717106</v>
+        <v>1439.563679754537</v>
       </c>
       <c r="N36" t="n">
-        <v>1627.935432266089</v>
+        <v>1627.93543226609</v>
       </c>
       <c r="O36" t="n">
-        <v>2109.608352848286</v>
+        <v>2109.608352848287</v>
       </c>
       <c r="P36" t="n">
-        <v>2479.190268972894</v>
+        <v>2479.190268972895</v>
       </c>
       <c r="Q36" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R36" t="n">
-        <v>2634.394200836496</v>
+        <v>2634.394200836497</v>
       </c>
       <c r="S36" t="n">
-        <v>2479.529814276167</v>
+        <v>2479.529814276168</v>
       </c>
       <c r="T36" t="n">
-        <v>2281.369233422865</v>
+        <v>2281.369233422866</v>
       </c>
       <c r="U36" t="n">
         <v>2053.211328115533</v>
@@ -7055,13 +7055,13 @@
         <v>1818.05921988379</v>
       </c>
       <c r="W36" t="n">
-        <v>1563.821863155588</v>
+        <v>1563.821863155589</v>
       </c>
       <c r="X36" t="n">
-        <v>1355.970362950055</v>
+        <v>1355.970362950056</v>
       </c>
       <c r="Y36" t="n">
-        <v>1148.210064185101</v>
+        <v>1148.210064185102</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>519.4137342984069</v>
+        <v>369.2970948860712</v>
       </c>
       <c r="C37" t="n">
-        <v>350.4775513705</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="D37" t="n">
         <v>200.3609119581643</v>
@@ -7083,19 +7083,19 @@
         <v>200.3609119581643</v>
       </c>
       <c r="F37" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="G37" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="H37" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="I37" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="J37" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="K37" t="n">
         <v>126.7777512253173</v>
@@ -7110,37 +7110,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O37" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P37" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q37" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R37" t="n">
-        <v>708.7191730718007</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S37" t="n">
-        <v>708.7191730718007</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="T37" t="n">
-        <v>708.7191730718007</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="U37" t="n">
-        <v>708.7191730718007</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="V37" t="n">
-        <v>701.0621991286466</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="W37" t="n">
-        <v>701.0621991286466</v>
+        <v>590.0896740296014</v>
       </c>
       <c r="X37" t="n">
-        <v>701.0621991286466</v>
+        <v>590.0896740296014</v>
       </c>
       <c r="Y37" t="n">
-        <v>701.0621991286466</v>
+        <v>369.2970948860712</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1223.189051921048</v>
+        <v>967.8671276387865</v>
       </c>
       <c r="C38" t="n">
-        <v>1223.189051921048</v>
+        <v>967.8671276387865</v>
       </c>
       <c r="D38" t="n">
-        <v>1022.719081369822</v>
+        <v>609.6014290320361</v>
       </c>
       <c r="E38" t="n">
-        <v>1022.719081369822</v>
+        <v>464.4568692498615</v>
       </c>
       <c r="F38" t="n">
-        <v>611.7331765802147</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="G38" t="n">
-        <v>194.1022822509005</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="H38" t="n">
-        <v>194.1022822509005</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="I38" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="J38" t="n">
-        <v>196.9321737498895</v>
+        <v>121.3717284425585</v>
       </c>
       <c r="K38" t="n">
-        <v>532.6881422406536</v>
+        <v>136.2237384878696</v>
       </c>
       <c r="L38" t="n">
-        <v>1001.499738269312</v>
+        <v>605.0353345165275</v>
       </c>
       <c r="M38" t="n">
-        <v>1330.978160523426</v>
+        <v>1143.2851108953</v>
       </c>
       <c r="N38" t="n">
-        <v>1863.30538346101</v>
+        <v>1675.612333832884</v>
       </c>
       <c r="O38" t="n">
-        <v>2320.779247227465</v>
+        <v>2133.086197599339</v>
       </c>
       <c r="P38" t="n">
-        <v>2673.548223012697</v>
+        <v>2485.855173384571</v>
       </c>
       <c r="Q38" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R38" t="n">
-        <v>2639.431928304924</v>
+        <v>2639.431928304925</v>
       </c>
       <c r="S38" t="n">
-        <v>2470.840713209913</v>
+        <v>2470.840713209914</v>
       </c>
       <c r="T38" t="n">
-        <v>2253.66337622109</v>
+        <v>2470.840713209914</v>
       </c>
       <c r="U38" t="n">
-        <v>1999.928223960982</v>
+        <v>2470.840713209914</v>
       </c>
       <c r="V38" t="n">
-        <v>1999.928223960982</v>
+        <v>2470.840713209914</v>
       </c>
       <c r="W38" t="n">
-        <v>1999.928223960982</v>
+        <v>2118.0720579398</v>
       </c>
       <c r="X38" t="n">
-        <v>1999.928223960982</v>
+        <v>1744.60629967872</v>
       </c>
       <c r="Y38" t="n">
-        <v>1609.78889198517</v>
+        <v>1354.466967702908</v>
       </c>
     </row>
     <row r="39">
@@ -7241,43 +7241,43 @@
         <v>497.3698332171997</v>
       </c>
       <c r="F39" t="n">
-        <v>350.8352752440846</v>
+        <v>350.8352752440847</v>
       </c>
       <c r="G39" t="n">
-        <v>213.1032867621175</v>
+        <v>213.1032867621176</v>
       </c>
       <c r="H39" t="n">
         <v>109.3808131512277</v>
       </c>
       <c r="I39" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="J39" t="n">
-        <v>53.47096446025395</v>
+        <v>145.2220982224846</v>
       </c>
       <c r="K39" t="n">
-        <v>75.0885244378358</v>
+        <v>428.6602428425192</v>
       </c>
       <c r="L39" t="n">
-        <v>460.4220989731247</v>
+        <v>504.0502611601307</v>
       </c>
       <c r="M39" t="n">
-        <v>1028.803575717106</v>
+        <v>1072.431737904112</v>
       </c>
       <c r="N39" t="n">
-        <v>1627.935432266089</v>
+        <v>1627.93543226609</v>
       </c>
       <c r="O39" t="n">
-        <v>2109.608352848286</v>
+        <v>2109.608352848287</v>
       </c>
       <c r="P39" t="n">
-        <v>2479.190268972894</v>
+        <v>2479.190268972895</v>
       </c>
       <c r="Q39" t="n">
-        <v>2673.548223012697</v>
+        <v>2673.548223012698</v>
       </c>
       <c r="R39" t="n">
-        <v>2634.394200836496</v>
+        <v>2634.394200836497</v>
       </c>
       <c r="S39" t="n">
         <v>2479.529814276168</v>
@@ -7292,10 +7292,10 @@
         <v>1818.05921988379</v>
       </c>
       <c r="W39" t="n">
-        <v>1563.821863155588</v>
+        <v>1563.821863155589</v>
       </c>
       <c r="X39" t="n">
-        <v>1355.970362950055</v>
+        <v>1355.970362950056</v>
       </c>
       <c r="Y39" t="n">
         <v>1148.210064185101</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>107.4888625882714</v>
+        <v>350.4775513705</v>
       </c>
       <c r="C40" t="n">
-        <v>107.4888625882714</v>
+        <v>350.4775513705</v>
       </c>
       <c r="D40" t="n">
-        <v>107.4888625882714</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="E40" t="n">
-        <v>53.47096446025395</v>
+        <v>200.3609119581643</v>
       </c>
       <c r="F40" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="G40" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="H40" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="I40" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="J40" t="n">
-        <v>53.47096446025395</v>
+        <v>53.47096446025397</v>
       </c>
       <c r="K40" t="n">
         <v>126.7777512253173</v>
@@ -7347,37 +7347,37 @@
         <v>613.2369015919273</v>
       </c>
       <c r="O40" t="n">
-        <v>753.5822438718145</v>
+        <v>753.5822438718144</v>
       </c>
       <c r="P40" t="n">
-        <v>850.1512473704623</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="Q40" t="n">
-        <v>833.2389856613586</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="R40" t="n">
-        <v>833.2389856613586</v>
+        <v>850.1512473704622</v>
       </c>
       <c r="S40" t="n">
-        <v>833.2389856613586</v>
+        <v>638.4653025630962</v>
       </c>
       <c r="T40" t="n">
-        <v>833.2389856613586</v>
+        <v>638.4653025630962</v>
       </c>
       <c r="U40" t="n">
-        <v>833.2389856613586</v>
+        <v>638.4653025630962</v>
       </c>
       <c r="V40" t="n">
-        <v>578.5544974554717</v>
+        <v>638.4653025630962</v>
       </c>
       <c r="W40" t="n">
-        <v>289.1373274185111</v>
+        <v>532.1260162007397</v>
       </c>
       <c r="X40" t="n">
-        <v>289.1373274185111</v>
+        <v>532.1260162007397</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.1373274185111</v>
+        <v>532.1260162007397</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>221.5464237571369</v>
       </c>
       <c r="F41" t="n">
-        <v>16.2587812838818</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="G41" t="n">
-        <v>16.2587812838818</v>
+        <v>221.5464237571369</v>
       </c>
       <c r="H41" t="n">
         <v>16.2587812838818</v>
@@ -7414,22 +7414,22 @@
         <v>16.2587812838818</v>
       </c>
       <c r="K41" t="n">
-        <v>31.11079132919289</v>
+        <v>217.4611996719191</v>
       </c>
       <c r="L41" t="n">
-        <v>86.43778495290496</v>
+        <v>272.7881932956311</v>
       </c>
       <c r="M41" t="n">
-        <v>287.6402033409423</v>
+        <v>366.0195715164995</v>
       </c>
       <c r="N41" t="n">
-        <v>488.8426217289797</v>
+        <v>465.3733392862194</v>
       </c>
       <c r="O41" t="n">
-        <v>611.7366458060528</v>
+        <v>545.8550236025565</v>
       </c>
       <c r="P41" t="n">
-        <v>812.9390641940902</v>
+        <v>747.0574419905938</v>
       </c>
       <c r="Q41" t="n">
         <v>812.9390641940902</v>
@@ -7447,16 +7447,16 @@
         <v>812.9390641940902</v>
       </c>
       <c r="V41" t="n">
-        <v>607.6514217208351</v>
+        <v>632.1217087036472</v>
       </c>
       <c r="W41" t="n">
-        <v>607.6514217208351</v>
+        <v>632.1217087036472</v>
       </c>
       <c r="X41" t="n">
         <v>426.8340662303921</v>
       </c>
       <c r="Y41" t="n">
-        <v>221.5464237571369</v>
+        <v>426.8340662303921</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>409.4908408675334</v>
+        <v>324.4306459505885</v>
       </c>
       <c r="C42" t="n">
-        <v>313.6230920677125</v>
+        <v>324.4306459505885</v>
       </c>
       <c r="D42" t="n">
-        <v>313.6230920677125</v>
+        <v>175.4962362893373</v>
       </c>
       <c r="E42" t="n">
-        <v>313.6230920677125</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="F42" t="n">
-        <v>313.6230920677125</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="G42" t="n">
-        <v>175.8911035857454</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H42" t="n">
-        <v>72.16862997485556</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I42" t="n">
         <v>16.2587812838818</v>
@@ -7493,49 +7493,49 @@
         <v>16.2587812838818</v>
       </c>
       <c r="K42" t="n">
-        <v>42.19256621413173</v>
+        <v>217.4611996719191</v>
       </c>
       <c r="L42" t="n">
-        <v>117.5825845317433</v>
+        <v>292.8512179895307</v>
       </c>
       <c r="M42" t="n">
-        <v>318.7850029197806</v>
+        <v>400.1846816210121</v>
       </c>
       <c r="N42" t="n">
-        <v>519.987421307818</v>
+        <v>524.7675875698774</v>
       </c>
       <c r="O42" t="n">
-        <v>611.7366458060528</v>
+        <v>725.9700059579147</v>
       </c>
       <c r="P42" t="n">
-        <v>812.9390641940902</v>
+        <v>780.2737811289846</v>
       </c>
       <c r="Q42" t="n">
         <v>812.9390641940902</v>
       </c>
       <c r="R42" t="n">
-        <v>812.9390641940902</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="S42" t="n">
-        <v>812.9390641940902</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="T42" t="n">
-        <v>614.7784833407885</v>
+        <v>773.7850420178891</v>
       </c>
       <c r="U42" t="n">
-        <v>409.4908408675334</v>
+        <v>735.0059308970988</v>
       </c>
       <c r="V42" t="n">
-        <v>409.4908408675334</v>
+        <v>735.0059308970988</v>
       </c>
       <c r="W42" t="n">
-        <v>409.4908408675334</v>
+        <v>529.7182884238437</v>
       </c>
       <c r="X42" t="n">
-        <v>409.4908408675334</v>
+        <v>529.7182884238437</v>
       </c>
       <c r="Y42" t="n">
-        <v>409.4908408675334</v>
+        <v>324.4306459505885</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>197.0761367743248</v>
+        <v>607.6514217208351</v>
       </c>
       <c r="C43" t="n">
-        <v>197.0761367743248</v>
+        <v>607.6514217208351</v>
       </c>
       <c r="D43" t="n">
-        <v>197.0761367743248</v>
+        <v>607.6514217208351</v>
       </c>
       <c r="E43" t="n">
-        <v>197.0761367743248</v>
+        <v>488.4198559816</v>
       </c>
       <c r="F43" t="n">
-        <v>197.0761367743248</v>
+        <v>341.5299084836897</v>
       </c>
       <c r="G43" t="n">
-        <v>197.0761367743248</v>
+        <v>172.6794418793991</v>
       </c>
       <c r="H43" t="n">
-        <v>183.195456690601</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I43" t="n">
-        <v>51.35741614018875</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="J43" t="n">
         <v>16.2587812838818</v>
       </c>
       <c r="K43" t="n">
-        <v>89.56556804894512</v>
+        <v>89.56556804894515</v>
       </c>
       <c r="L43" t="n">
-        <v>238.8994510678578</v>
+        <v>238.8994510678577</v>
       </c>
       <c r="M43" t="n">
         <v>406.740215650389</v>
@@ -7596,25 +7596,25 @@
         <v>812.9390641940902</v>
       </c>
       <c r="S43" t="n">
-        <v>607.6514217208351</v>
+        <v>812.9390641940902</v>
       </c>
       <c r="T43" t="n">
         <v>607.6514217208351</v>
       </c>
       <c r="U43" t="n">
-        <v>402.3637792475799</v>
+        <v>607.6514217208351</v>
       </c>
       <c r="V43" t="n">
-        <v>402.3637792475799</v>
+        <v>607.6514217208351</v>
       </c>
       <c r="W43" t="n">
-        <v>402.3637792475799</v>
+        <v>607.6514217208351</v>
       </c>
       <c r="X43" t="n">
-        <v>197.0761367743248</v>
+        <v>607.6514217208351</v>
       </c>
       <c r="Y43" t="n">
-        <v>197.0761367743248</v>
+        <v>607.6514217208351</v>
       </c>
     </row>
     <row r="44">
@@ -7633,13 +7633,13 @@
         <v>221.5464237571369</v>
       </c>
       <c r="E44" t="n">
-        <v>221.5464237571369</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="F44" t="n">
-        <v>221.5464237571369</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="G44" t="n">
-        <v>221.5464237571369</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H44" t="n">
         <v>16.2587812838818</v>
@@ -7654,46 +7654,46 @@
         <v>217.4611996719191</v>
       </c>
       <c r="L44" t="n">
-        <v>272.7881932956312</v>
+        <v>295.8642884062143</v>
       </c>
       <c r="M44" t="n">
-        <v>366.0195715164996</v>
+        <v>497.0667067942516</v>
       </c>
       <c r="N44" t="n">
-        <v>531.2549614897158</v>
+        <v>698.2691251822889</v>
       </c>
       <c r="O44" t="n">
-        <v>611.7366458060528</v>
+        <v>778.7508094986259</v>
       </c>
       <c r="P44" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940901</v>
       </c>
       <c r="Q44" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940901</v>
       </c>
       <c r="R44" t="n">
-        <v>812.9390641940902</v>
+        <v>778.8227694863173</v>
       </c>
       <c r="S44" t="n">
-        <v>644.347849099079</v>
+        <v>778.8227694863173</v>
       </c>
       <c r="T44" t="n">
-        <v>632.1217087036472</v>
+        <v>778.8227694863173</v>
       </c>
       <c r="U44" t="n">
-        <v>426.8340662303921</v>
+        <v>778.8227694863173</v>
       </c>
       <c r="V44" t="n">
-        <v>426.8340662303921</v>
+        <v>778.8227694863173</v>
       </c>
       <c r="W44" t="n">
-        <v>426.8340662303921</v>
+        <v>778.8227694863173</v>
       </c>
       <c r="X44" t="n">
-        <v>426.8340662303921</v>
+        <v>573.5351270130622</v>
       </c>
       <c r="Y44" t="n">
-        <v>426.8340662303921</v>
+        <v>368.247484539807</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>279.2187099002271</v>
+        <v>86.41111728713642</v>
       </c>
       <c r="C45" t="n">
-        <v>279.2187099002271</v>
+        <v>86.41111728713642</v>
       </c>
       <c r="D45" t="n">
-        <v>279.2187099002271</v>
+        <v>86.41111728713642</v>
       </c>
       <c r="E45" t="n">
-        <v>119.9812548947716</v>
+        <v>86.41111728713642</v>
       </c>
       <c r="F45" t="n">
-        <v>119.9812548947716</v>
+        <v>86.41111728713642</v>
       </c>
       <c r="G45" t="n">
-        <v>119.9812548947716</v>
+        <v>86.41111728713642</v>
       </c>
       <c r="H45" t="n">
         <v>16.2587812838818</v>
@@ -7727,52 +7727,52 @@
         <v>16.2587812838818</v>
       </c>
       <c r="J45" t="n">
-        <v>108.0099150461124</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="K45" t="n">
-        <v>129.6274750236943</v>
+        <v>217.4611996719191</v>
       </c>
       <c r="L45" t="n">
-        <v>205.0174933413058</v>
+        <v>341.1007401878828</v>
       </c>
       <c r="M45" t="n">
-        <v>312.3509569727873</v>
+        <v>542.3031585759201</v>
       </c>
       <c r="N45" t="n">
-        <v>436.9338629216526</v>
+        <v>666.8860645247853</v>
       </c>
       <c r="O45" t="n">
-        <v>564.2773349832171</v>
+        <v>758.6352890230202</v>
       </c>
       <c r="P45" t="n">
-        <v>618.581110154287</v>
+        <v>812.9390641940901</v>
       </c>
       <c r="Q45" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940901</v>
       </c>
       <c r="R45" t="n">
-        <v>812.9390641940902</v>
+        <v>812.9390641940901</v>
       </c>
       <c r="S45" t="n">
-        <v>658.0746776337613</v>
+        <v>658.0746776337612</v>
       </c>
       <c r="T45" t="n">
-        <v>658.0746776337613</v>
+        <v>459.9140967804595</v>
       </c>
       <c r="U45" t="n">
-        <v>658.0746776337613</v>
+        <v>459.9140967804595</v>
       </c>
       <c r="V45" t="n">
-        <v>652.7216893935503</v>
+        <v>254.6264543072045</v>
       </c>
       <c r="W45" t="n">
-        <v>652.7216893935503</v>
+        <v>254.6264543072045</v>
       </c>
       <c r="X45" t="n">
-        <v>447.4340469202951</v>
+        <v>254.6264543072045</v>
       </c>
       <c r="Y45" t="n">
-        <v>447.4340469202951</v>
+        <v>254.6264543072045</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>294.9867693322045</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="C46" t="n">
-        <v>294.9867693322045</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="D46" t="n">
-        <v>294.9867693322045</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="E46" t="n">
-        <v>294.9867693322045</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="F46" t="n">
-        <v>148.0968218342941</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="G46" t="n">
-        <v>148.0968218342941</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="H46" t="n">
-        <v>148.0968218342941</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="I46" t="n">
         <v>16.2587812838818</v>
@@ -7809,49 +7809,49 @@
         <v>16.2587812838818</v>
       </c>
       <c r="K46" t="n">
-        <v>89.5655680489452</v>
+        <v>89.56556804894515</v>
       </c>
       <c r="L46" t="n">
         <v>238.8994510678577</v>
       </c>
       <c r="M46" t="n">
-        <v>406.740215650389</v>
+        <v>406.7402156503889</v>
       </c>
       <c r="N46" t="n">
-        <v>576.0247184155553</v>
+        <v>576.0247184155552</v>
       </c>
       <c r="O46" t="n">
-        <v>716.3700606954425</v>
+        <v>716.3700606954422</v>
       </c>
       <c r="P46" t="n">
-        <v>812.9390641940903</v>
+        <v>812.9390641940901</v>
       </c>
       <c r="Q46" t="n">
-        <v>812.9390641940903</v>
+        <v>812.9390641940901</v>
       </c>
       <c r="R46" t="n">
-        <v>671.5069898954287</v>
+        <v>812.9390641940901</v>
       </c>
       <c r="S46" t="n">
-        <v>466.2193474221735</v>
+        <v>812.9390641940901</v>
       </c>
       <c r="T46" t="n">
-        <v>466.2193474221735</v>
+        <v>812.9390641940901</v>
       </c>
       <c r="U46" t="n">
-        <v>466.2193474221735</v>
+        <v>607.6514217208349</v>
       </c>
       <c r="V46" t="n">
-        <v>466.2193474221735</v>
+        <v>402.3637792475798</v>
       </c>
       <c r="W46" t="n">
-        <v>466.2193474221735</v>
+        <v>197.0761367743247</v>
       </c>
       <c r="X46" t="n">
-        <v>466.2193474221735</v>
+        <v>16.2587812838818</v>
       </c>
       <c r="Y46" t="n">
-        <v>294.9867693322045</v>
+        <v>16.2587812838818</v>
       </c>
     </row>
   </sheetData>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>24.18630275830051</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>145.7181721000542</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>109.0616567345141</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8707,10 +8707,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>88.98175284952838</v>
+        <v>168.7011754470436</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159461</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>33.41312244926681</v>
+        <v>33.41312244926682</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>152.7422910804399</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>94.81712601672305</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>77.39344690825465</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>148.3824678959267</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.3265181485691</v>
+        <v>13.75612203907821</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>24.18630275830051</v>
       </c>
       <c r="K14" t="n">
-        <v>131.2217779644796</v>
+        <v>167.0704336437389</v>
       </c>
       <c r="L14" t="n">
-        <v>147.3489139033588</v>
+        <v>147.3489139033589</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>109.0616567345141</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>22.72605164159458</v>
+        <v>22.72605164159461</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.3988468792479</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>60.06437818929794</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>94.81712601672305</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>77.39344690825465</v>
       </c>
       <c r="O15" t="n">
-        <v>110.5587817068711</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>32.99523541929838</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.75612203907819</v>
+        <v>13.75612203907821</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>24.18630275830049</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>245.4750260428651</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9175,16 +9175,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>371.3770811442841</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>369.2586363925328</v>
       </c>
       <c r="N18" t="n">
-        <v>157.1110912372907</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9406,10 +9406,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>338.9908280221508</v>
       </c>
       <c r="M20" t="n">
-        <v>49.04443879304961</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9418,7 +9418,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>33.41312244926682</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>64.43317834614876</v>
+        <v>157.1110912372914</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>49.04443879304961</v>
+        <v>238.6333778113598</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9658,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159461</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>244.9302278939674</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>247.1170334493662</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.75612203907819</v>
+        <v>13.75612203907821</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>24.18630275830049</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>351.6913712827505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>36.8778297122013</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9895,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9962,13 +9962,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>444.6581870293246</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>64.43317834614882</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>92.77293304345561</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>17.19211985066767</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>33.41312244926681</v>
+        <v>33.41312244926682</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>138.5551196030868</v>
       </c>
       <c r="L30" t="n">
-        <v>244.9302278939674</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.75612203907819</v>
+        <v>13.75612203907821</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10360,16 +10360,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>36.87782971220125</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>110.9185524900097</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>22.72605164159461</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>138.5551196030868</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>64.43317834614928</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.75612203907819</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>24.18630275830051</v>
       </c>
       <c r="K35" t="n">
-        <v>113.2652568896915</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10603,10 +10603,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>255.8288649037838</v>
       </c>
       <c r="Q35" t="n">
-        <v>22.72605164159458</v>
+        <v>22.72605164159461</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>50.79586775259511</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>64.43317834614976</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>92.77293304345663</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>238.6333778113593</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>22.72605164159458</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>33.41312244926681</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>313.0742992097751</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>435.2735236496088</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>24.18630275830049</v>
+        <v>24.18630275830051</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>188.2327356997235</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>109.0616567345141</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>102.8774248669872</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>42.84074723306684</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>168.7011754470436</v>
       </c>
       <c r="Q41" t="n">
-        <v>22.72605164159458</v>
+        <v>89.27314477643942</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>33.41312244926681</v>
+        <v>33.41312244926682</v>
       </c>
       <c r="K42" t="n">
-        <v>4.359823184513203</v>
+        <v>181.398846879248</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>94.81712601672302</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>77.39344690825459</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>110.5587817068711</v>
       </c>
       <c r="P42" t="n">
-        <v>148.3824678959267</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.75612203907819</v>
+        <v>46.75135745837673</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>24.18630275830049</v>
+        <v>24.18630275830051</v>
       </c>
       <c r="K44" t="n">
         <v>188.2327356997235</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>23.30918698038707</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>109.0616567345141</v>
       </c>
       <c r="N44" t="n">
-        <v>66.54709313484457</v>
+        <v>102.8774248669872</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>168.7011754470436</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>22.72605164159458</v>
+        <v>22.72605164159461</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>33.41312244926682</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>181.3988468792479</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>48.73689110944662</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>94.81712601672305</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>35.95378541750458</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>13.75612203907821</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,10 +23263,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>173.119528341378</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>178.6956040237392</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,7 +23278,7 @@
         <v>320.5474141234789</v>
       </c>
       <c r="I11" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>11.77079757041247</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1978007375074</v>
+        <v>47.96303468898483</v>
       </c>
       <c r="V11" t="n">
-        <v>124.5174924216124</v>
+        <v>315.6483794786574</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>146.0062026688905</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>120.997722428535</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.3546685971475</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>102.6852488747809</v>
       </c>
       <c r="I12" t="n">
-        <v>55.35075020406402</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.7624819544391</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>153.3157426947255</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>196.1789750447687</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>48.46021711239706</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>106.16849158155</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R13" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S13" t="n">
-        <v>209.5690853592923</v>
+        <v>197.8067245223816</v>
       </c>
       <c r="T13" t="n">
         <v>224.4034240873793</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2738102244793</v>
+        <v>83.0390441759568</v>
       </c>
       <c r="V13" t="n">
         <v>48.90287727530546</v>
       </c>
       <c r="W13" t="n">
-        <v>83.28823228806846</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>22.47488934051461</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.57547141655621</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>234.4454034504825</v>
+        <v>231.8910721067161</v>
       </c>
       <c r="H14" t="n">
-        <v>117.3126480749563</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I14" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>215.005563618935</v>
+        <v>11.77079757041247</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1978007375074</v>
+        <v>47.96303468898483</v>
       </c>
       <c r="V14" t="n">
-        <v>124.5174924216124</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>146.0062026688905</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>119.6446790692626</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,10 +23591,10 @@
         <v>136.3546685971475</v>
       </c>
       <c r="H15" t="n">
-        <v>102.6852488747809</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>55.35075020406402</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.7624819544391</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>153.3157426947255</v>
       </c>
       <c r="T15" t="n">
-        <v>97.38700921500686</v>
+        <v>196.1789750447687</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8763262542601</v>
+        <v>22.64156020573759</v>
       </c>
       <c r="V15" t="n">
-        <v>29.56582110090272</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>48.46021711239706</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>80.05230877934824</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R16" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S16" t="n">
-        <v>209.5690853592923</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T16" t="n">
         <v>224.4034240873793</v>
@@ -23712,16 +23712,16 @@
         <v>83.0390441759568</v>
       </c>
       <c r="V16" t="n">
-        <v>48.90287727530546</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>107.5138164010524</v>
+        <v>83.28823228806846</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.34988730357225</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H17" t="n">
         <v>320.5474141234789</v>
       </c>
       <c r="I17" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>202.3576140041643</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>147.4455898293408</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>80.78406381776603</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23934,28 +23934,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R19" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S19" t="n">
-        <v>209.5690853592923</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>260.6243958911715</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>133.6083345382202</v>
       </c>
       <c r="H20" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>139.22500461274</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U20" t="n">
         <v>251.1978007375074</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>88.48083922921728</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R22" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T22" t="n">
-        <v>224.4034240873793</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2738102244793</v>
+        <v>199.8110529436177</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>105.9502095851742</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>294.1496907279771</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>285.5200318738634</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>320.5474141234789</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>166.905302944061</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>215.005563618935</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>111.3648197719822</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24408,28 +24408,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R25" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S25" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2738102244793</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>59.97120536570736</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.961386067548347</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>192.6079725171026</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24624,7 +24624,7 @@
         <v>130.5196601449082</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34.74764850774388</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S28" t="n">
-        <v>209.5690853592923</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T28" t="n">
         <v>224.4034240873793</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>36.22097180379217</v>
       </c>
       <c r="W28" t="n">
-        <v>210.986373867211</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,10 +24697,10 @@
         <v>413.4545853860211</v>
       </c>
       <c r="H29" t="n">
-        <v>320.5474141234789</v>
+        <v>31.7659050852472</v>
       </c>
       <c r="I29" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>108.6808585543839</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>215.005563618935</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1978007375074</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1619619382476</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>154.8564539895622</v>
       </c>
       <c r="I31" t="n">
-        <v>130.5196601449082</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>34.74764850774388</v>
@@ -24882,31 +24882,31 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R31" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S31" t="n">
-        <v>209.5690853592923</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T31" t="n">
-        <v>224.4034240873793</v>
+        <v>97.37726746445496</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.667981832058871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I32" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>166.905302944061</v>
       </c>
       <c r="T32" t="n">
-        <v>179.9213303675122</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U32" t="n">
         <v>251.1978007375074</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>91.95730816065466</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>167.1619619382476</v>
       </c>
       <c r="H34" t="n">
-        <v>154.8564539895622</v>
+        <v>68.39369670870047</v>
       </c>
       <c r="I34" t="n">
         <v>130.5196601449082</v>
@@ -25119,28 +25119,28 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R34" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S34" t="n">
-        <v>209.5690853592923</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T34" t="n">
-        <v>224.4034240873793</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V34" t="n">
-        <v>36.22097180379205</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>97.73209058905081</v>
+        <v>236.3442716548498</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H35" t="n">
         <v>320.5474141234789</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,10 +25216,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S37" t="n">
-        <v>209.5690853592923</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T37" t="n">
         <v>224.4034240873793</v>
@@ -25371,16 +25371,16 @@
         <v>286.2738102244793</v>
       </c>
       <c r="V37" t="n">
-        <v>244.5572391201055</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>29.0620407291388</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,22 +25396,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>156.2177707749695</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>238.237255887909</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4545853860211</v>
       </c>
       <c r="H38" t="n">
         <v>320.5474141234789</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>92.95624349983188</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.1619619382476</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R40" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S40" t="n">
-        <v>209.5690853592923</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>224.4034240873793</v>
@@ -25608,10 +25608,10 @@
         <v>286.2738102244793</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>181.2471048378581</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>179.499075614958</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,16 +25639,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>203.6412796931889</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.4545853860211</v>
       </c>
       <c r="H41" t="n">
-        <v>320.5474141234789</v>
+        <v>117.3126480749563</v>
       </c>
       <c r="I41" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>33.77513176069502</v>
+        <v>33.77513176069503</v>
       </c>
       <c r="S41" t="n">
         <v>166.905302944061</v>
@@ -25687,16 +25687,16 @@
         <v>251.1978007375074</v>
       </c>
       <c r="V41" t="n">
-        <v>124.5174924216124</v>
+        <v>148.7430765345964</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>190.7219187429305</v>
+        <v>166.4963346299465</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.003172607531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>77.79942767649305</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.3546685971475</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>102.6852488747809</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.7624819544391</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>153.3157426947255</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.1789750447687</v>
       </c>
       <c r="U42" t="n">
-        <v>22.64156020573759</v>
+        <v>187.4850062446778</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>48.46021711239706</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>2.447929728781816</v>
       </c>
     </row>
     <row r="43">
@@ -25794,22 +25794,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>28.39471256472646</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.1619619382476</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>141.1145807066756</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>130.5196601449082</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>34.74764850774388</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,19 +25830,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R43" t="n">
-        <v>140.017753555675</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S43" t="n">
-        <v>6.334319310769786</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T43" t="n">
-        <v>224.4034240873793</v>
+        <v>21.16865803885673</v>
       </c>
       <c r="U43" t="n">
-        <v>83.0390441759568</v>
+        <v>286.2738102244793</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>22.47488934051461</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>179.499075614958</v>
+        <v>237.4997914886372</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>178.6956040237393</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25882,10 +25882,10 @@
         <v>413.4545853860211</v>
       </c>
       <c r="H44" t="n">
-        <v>117.3126480749563</v>
+        <v>320.5474141234789</v>
       </c>
       <c r="I44" t="n">
-        <v>139.22500461274</v>
+        <v>139.2250046127401</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>33.77513176069502</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>166.905302944061</v>
       </c>
       <c r="T44" t="n">
-        <v>202.9016846274575</v>
+        <v>215.005563618935</v>
       </c>
       <c r="U44" t="n">
-        <v>47.96303468898483</v>
+        <v>251.1978007375074</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>166.4963346299465</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>183.0031726075311</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25961,10 +25961,10 @@
         <v>136.3546685971475</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>33.23443623155886</v>
       </c>
       <c r="I45" t="n">
-        <v>55.35075020406402</v>
+        <v>55.35075020406403</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,19 +25997,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>196.1789750447687</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.8763262542601</v>
       </c>
       <c r="V45" t="n">
-        <v>227.5011287916163</v>
+        <v>29.56582110090275</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>2.53821915495493</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.1619619382476</v>
@@ -26043,7 +26043,7 @@
         <v>154.8564539895622</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>130.5196601449082</v>
       </c>
       <c r="J46" t="n">
         <v>34.74764850774388</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.74313909201274</v>
+        <v>16.74313909201275</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>140.0177535556751</v>
       </c>
       <c r="S46" t="n">
-        <v>6.334319310769786</v>
+        <v>209.5690853592924</v>
       </c>
       <c r="T46" t="n">
         <v>224.4034240873793</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2738102244793</v>
+        <v>83.03904417595683</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>48.90287727530549</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>83.28823228806849</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>46.70047345349866</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.06440104302541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>384488.0951314857</v>
+        <v>384488.0951314856</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677857.7406007178</v>
+        <v>677857.740600718</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677857.7406007177</v>
+        <v>677857.740600718</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677857.7406007178</v>
+        <v>677857.740600718</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677857.7406007178</v>
+        <v>677857.7406007177</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677857.7406007178</v>
+        <v>677857.740600718</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677857.7406007178</v>
+        <v>677857.7406007181</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677857.7406007177</v>
+        <v>677857.740600718</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>384488.0951314859</v>
+        <v>384488.0951314858</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
         <v>634939.1625057049</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057046</v>
       </c>
       <c r="E2" t="n">
-        <v>281913.0154980676</v>
+        <v>281913.0154980677</v>
       </c>
       <c r="F2" t="n">
         <v>281913.0154980677</v>
@@ -26334,28 +26334,28 @@
         <v>452591.1777045712</v>
       </c>
       <c r="I2" t="n">
+        <v>452591.1777045712</v>
+      </c>
+      <c r="J2" t="n">
         <v>452591.1777045713</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>452591.1777045713</v>
+      </c>
+      <c r="L2" t="n">
         <v>452591.1777045712</v>
-      </c>
-      <c r="K2" t="n">
-        <v>452591.1777045711</v>
-      </c>
-      <c r="L2" t="n">
-        <v>452591.1777045713</v>
       </c>
       <c r="M2" t="n">
         <v>452591.1777045713</v>
       </c>
       <c r="N2" t="n">
-        <v>452591.1777045712</v>
+        <v>452591.1777045714</v>
       </c>
       <c r="O2" t="n">
-        <v>281913.0154980677</v>
+        <v>281913.0154980676</v>
       </c>
       <c r="P2" t="n">
-        <v>281913.0154980677</v>
+        <v>281913.0154980675</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>430028.1575176379</v>
+        <v>430028.1575176378</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>50646.91663835599</v>
+        <v>50646.91663835597</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>29999.56903374325</v>
+        <v>29999.56903374327</v>
       </c>
       <c r="F4" t="n">
-        <v>29999.56903374325</v>
+        <v>29999.56903374326</v>
       </c>
       <c r="G4" t="n">
-        <v>108982.1271210826</v>
+        <v>108982.1271210827</v>
       </c>
       <c r="H4" t="n">
-        <v>108982.1271210826</v>
+        <v>108982.1271210827</v>
       </c>
       <c r="I4" t="n">
         <v>108982.1271210826</v>
@@ -26450,16 +26450,16 @@
         <v>108982.1271210826</v>
       </c>
       <c r="M4" t="n">
-        <v>108982.1271210826</v>
+        <v>108982.1271210827</v>
       </c>
       <c r="N4" t="n">
-        <v>108982.1271210826</v>
+        <v>108982.1271210827</v>
       </c>
       <c r="O4" t="n">
-        <v>29999.56903374325</v>
+        <v>29999.56903374327</v>
       </c>
       <c r="P4" t="n">
-        <v>29999.56903374325</v>
+        <v>29999.56903374326</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>22378.74073390289</v>
       </c>
       <c r="G5" t="n">
-        <v>50659.9999479457</v>
+        <v>50659.99994794572</v>
       </c>
       <c r="H5" t="n">
-        <v>50659.9999479457</v>
+        <v>50659.99994794572</v>
       </c>
       <c r="I5" t="n">
         <v>50659.9999479457</v>
@@ -26502,16 +26502,16 @@
         <v>50659.9999479457</v>
       </c>
       <c r="M5" t="n">
-        <v>50659.9999479457</v>
+        <v>50659.99994794572</v>
       </c>
       <c r="N5" t="n">
-        <v>50659.9999479457</v>
+        <v>50659.99994794572</v>
       </c>
       <c r="O5" t="n">
         <v>22378.74073390289</v>
       </c>
       <c r="P5" t="n">
-        <v>22378.74073390289</v>
+        <v>22378.74073390288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>181119.6578374923</v>
+        <v>181159.3800383055</v>
       </c>
       <c r="C6" t="n">
-        <v>181119.6578374925</v>
+        <v>181159.3800383055</v>
       </c>
       <c r="D6" t="n">
-        <v>181119.6578374924</v>
+        <v>181159.3800383052</v>
       </c>
       <c r="E6" t="n">
-        <v>-211925.5277919504</v>
+        <v>-201636.6593876897</v>
       </c>
       <c r="F6" t="n">
-        <v>218102.6297256876</v>
+        <v>228391.4981299481</v>
       </c>
       <c r="G6" t="n">
-        <v>159531.4564750612</v>
+        <v>164865.1524281651</v>
       </c>
       <c r="H6" t="n">
-        <v>287022.7217987607</v>
+        <v>292356.4177518646</v>
       </c>
       <c r="I6" t="n">
-        <v>287022.7217987608</v>
+        <v>292356.4177518646</v>
       </c>
       <c r="J6" t="n">
-        <v>287022.7217987607</v>
+        <v>292356.4177518647</v>
       </c>
       <c r="K6" t="n">
-        <v>287022.7217987606</v>
+        <v>292356.4177518647</v>
       </c>
       <c r="L6" t="n">
-        <v>287022.7217987608</v>
+        <v>292356.4177518646</v>
       </c>
       <c r="M6" t="n">
-        <v>236375.8051604048</v>
+        <v>241709.5011135087</v>
       </c>
       <c r="N6" t="n">
-        <v>287022.7217987606</v>
+        <v>292356.4177518648</v>
       </c>
       <c r="O6" t="n">
-        <v>218102.6297256876</v>
+        <v>228391.4981299481</v>
       </c>
       <c r="P6" t="n">
-        <v>218102.6297256876</v>
+        <v>228391.498129948</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="F3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="G3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="H3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="I3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="J3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="K3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="L3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="M3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="N3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="O3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="P3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>203.2347660485225</v>
       </c>
       <c r="G4" t="n">
-        <v>668.3870557531743</v>
+        <v>668.3870557531744</v>
       </c>
       <c r="H4" t="n">
-        <v>668.3870557531743</v>
+        <v>668.3870557531744</v>
       </c>
       <c r="I4" t="n">
         <v>668.3870557531743</v>
@@ -26822,10 +26822,10 @@
         <v>668.3870557531743</v>
       </c>
       <c r="M4" t="n">
-        <v>668.3870557531743</v>
+        <v>668.3870557531745</v>
       </c>
       <c r="N4" t="n">
-        <v>668.3870557531743</v>
+        <v>668.3870557531745</v>
       </c>
       <c r="O4" t="n">
         <v>203.2347660485225</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.727842117097</v>
+        <v>459.7278421170969</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>465.1522897046517</v>
+        <v>465.1522897046519</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>465.1522897046517</v>
+        <v>465.1522897046519</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31758,7 +31758,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I11" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J11" t="n">
         <v>156.8596017683858</v>
@@ -31773,7 +31773,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N11" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O11" t="n">
         <v>311.3928420442493</v>
@@ -31785,7 +31785,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R11" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S11" t="n">
         <v>42.11476664218432</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H12" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I12" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J12" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K12" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L12" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M12" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N12" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O12" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P12" t="n">
         <v>188.8267055669261</v>
@@ -31864,10 +31864,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R12" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S12" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T12" t="n">
         <v>3.985753650052943</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H13" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I13" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J13" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K13" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L13" t="n">
         <v>123.2522808193935</v>
@@ -31940,10 +31940,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R13" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S13" t="n">
         <v>14.44751267767991</v>
@@ -31995,7 +31995,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I14" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J14" t="n">
         <v>156.8596017683858</v>
@@ -32010,7 +32010,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N14" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O14" t="n">
         <v>311.3928420442493</v>
@@ -32022,7 +32022,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R14" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S14" t="n">
         <v>42.11476664218432</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H15" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I15" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J15" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K15" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L15" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M15" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N15" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O15" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P15" t="n">
         <v>188.8267055669261</v>
@@ -32101,10 +32101,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R15" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S15" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T15" t="n">
         <v>3.985753650052943</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H16" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I16" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J16" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K16" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L16" t="n">
         <v>123.2522808193935</v>
@@ -32177,10 +32177,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R16" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S16" t="n">
         <v>14.44751267767991</v>
@@ -32232,7 +32232,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I17" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J17" t="n">
         <v>156.8596017683858</v>
@@ -32247,7 +32247,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N17" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O17" t="n">
         <v>311.3928420442493</v>
@@ -32259,7 +32259,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R17" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S17" t="n">
         <v>42.11476664218432</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H18" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I18" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J18" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K18" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L18" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M18" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N18" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O18" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P18" t="n">
         <v>188.8267055669261</v>
@@ -32338,10 +32338,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R18" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S18" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T18" t="n">
         <v>3.985753650052943</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H19" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I19" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J19" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K19" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L19" t="n">
         <v>123.2522808193935</v>
@@ -32414,10 +32414,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R19" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S19" t="n">
         <v>14.44751267767991</v>
@@ -32469,7 +32469,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I20" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J20" t="n">
         <v>156.8596017683858</v>
@@ -32484,7 +32484,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N20" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O20" t="n">
         <v>311.3928420442493</v>
@@ -32496,7 +32496,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R20" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S20" t="n">
         <v>42.11476664218432</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H21" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I21" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J21" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K21" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L21" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M21" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N21" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O21" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P21" t="n">
         <v>188.8267055669261</v>
@@ -32575,10 +32575,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R21" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S21" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T21" t="n">
         <v>3.985753650052943</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H22" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I22" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J22" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K22" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L22" t="n">
         <v>123.2522808193935</v>
@@ -32651,10 +32651,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R22" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S22" t="n">
         <v>14.44751267767991</v>
@@ -32706,7 +32706,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I23" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J23" t="n">
         <v>156.8596017683858</v>
@@ -32721,7 +32721,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N23" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O23" t="n">
         <v>311.3928420442493</v>
@@ -32733,7 +32733,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R23" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S23" t="n">
         <v>42.11476664218432</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H24" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I24" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J24" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K24" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L24" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M24" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N24" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O24" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P24" t="n">
         <v>188.8267055669261</v>
@@ -32812,10 +32812,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R24" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S24" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T24" t="n">
         <v>3.985753650052943</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H25" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I25" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J25" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K25" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L25" t="n">
         <v>123.2522808193935</v>
@@ -32888,10 +32888,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R25" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S25" t="n">
         <v>14.44751267767991</v>
@@ -32943,7 +32943,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I26" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J26" t="n">
         <v>156.8596017683858</v>
@@ -32958,7 +32958,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N26" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O26" t="n">
         <v>311.3928420442493</v>
@@ -32970,7 +32970,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R26" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S26" t="n">
         <v>42.11476664218432</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H27" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I27" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J27" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K27" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L27" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M27" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N27" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O27" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P27" t="n">
         <v>188.8267055669261</v>
@@ -33049,10 +33049,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R27" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S27" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T27" t="n">
         <v>3.985753650052943</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H28" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I28" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J28" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K28" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L28" t="n">
         <v>123.2522808193935</v>
@@ -33125,10 +33125,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R28" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S28" t="n">
         <v>14.44751267767991</v>
@@ -33180,7 +33180,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I29" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J29" t="n">
         <v>156.8596017683858</v>
@@ -33195,7 +33195,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N29" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O29" t="n">
         <v>311.3928420442493</v>
@@ -33207,7 +33207,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R29" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S29" t="n">
         <v>42.11476664218432</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H30" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I30" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J30" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K30" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L30" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M30" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N30" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O30" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P30" t="n">
         <v>188.8267055669261</v>
@@ -33286,10 +33286,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R30" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S30" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T30" t="n">
         <v>3.985753650052943</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H31" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I31" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J31" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K31" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L31" t="n">
         <v>123.2522808193935</v>
@@ -33362,10 +33362,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R31" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S31" t="n">
         <v>14.44751267767991</v>
@@ -33417,7 +33417,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I32" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J32" t="n">
         <v>156.8596017683858</v>
@@ -33432,7 +33432,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N32" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O32" t="n">
         <v>311.3928420442493</v>
@@ -33444,7 +33444,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R32" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S32" t="n">
         <v>42.11476664218432</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H33" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I33" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J33" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K33" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L33" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M33" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N33" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O33" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P33" t="n">
         <v>188.8267055669261</v>
@@ -33523,10 +33523,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R33" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S33" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T33" t="n">
         <v>3.985753650052943</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H34" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I34" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J34" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K34" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L34" t="n">
         <v>123.2522808193935</v>
@@ -33599,10 +33599,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R34" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S34" t="n">
         <v>14.44751267767991</v>
@@ -33654,7 +33654,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I35" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J35" t="n">
         <v>156.8596017683858</v>
@@ -33669,7 +33669,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N35" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O35" t="n">
         <v>311.3928420442493</v>
@@ -33681,7 +33681,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R35" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S35" t="n">
         <v>42.11476664218432</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H36" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I36" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J36" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K36" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L36" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M36" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N36" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O36" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P36" t="n">
         <v>188.8267055669261</v>
@@ -33760,10 +33760,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R36" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S36" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T36" t="n">
         <v>3.985753650052943</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H37" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I37" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J37" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K37" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L37" t="n">
         <v>123.2522808193935</v>
@@ -33836,10 +33836,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R37" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S37" t="n">
         <v>14.44751267767991</v>
@@ -33891,7 +33891,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I38" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J38" t="n">
         <v>156.8596017683858</v>
@@ -33906,7 +33906,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N38" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O38" t="n">
         <v>311.3928420442493</v>
@@ -33918,7 +33918,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R38" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S38" t="n">
         <v>42.11476664218432</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H39" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I39" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J39" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K39" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L39" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M39" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N39" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O39" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P39" t="n">
         <v>188.8267055669261</v>
@@ -33997,10 +33997,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R39" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S39" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T39" t="n">
         <v>3.985753650052943</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H40" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I40" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J40" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K40" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L40" t="n">
         <v>123.2522808193935</v>
@@ -34073,10 +34073,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R40" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S40" t="n">
         <v>14.44751267767991</v>
@@ -34128,7 +34128,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I41" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J41" t="n">
         <v>156.8596017683858</v>
@@ -34143,7 +34143,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N41" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O41" t="n">
         <v>311.3928420442493</v>
@@ -34155,7 +34155,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R41" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S41" t="n">
         <v>42.11476664218432</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H42" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I42" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J42" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K42" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L42" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M42" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N42" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O42" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P42" t="n">
         <v>188.8267055669261</v>
@@ -34234,10 +34234,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R42" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S42" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T42" t="n">
         <v>3.985753650052943</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H43" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I43" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J43" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K43" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L43" t="n">
         <v>123.2522808193935</v>
@@ -34310,10 +34310,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R43" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S43" t="n">
         <v>14.44751267767991</v>
@@ -34365,7 +34365,7 @@
         <v>18.92738799228831</v>
       </c>
       <c r="I44" t="n">
-        <v>71.25088495766587</v>
+        <v>71.25088495766586</v>
       </c>
       <c r="J44" t="n">
         <v>156.8596017683858</v>
@@ -34380,7 +34380,7 @@
         <v>324.5193425412812</v>
       </c>
       <c r="N44" t="n">
-        <v>329.7704047781263</v>
+        <v>329.7704047781262</v>
       </c>
       <c r="O44" t="n">
         <v>311.3928420442493</v>
@@ -34392,7 +34392,7 @@
         <v>199.5796382328549</v>
       </c>
       <c r="R44" t="n">
-        <v>116.0939861804547</v>
+        <v>116.0939861804546</v>
       </c>
       <c r="S44" t="n">
         <v>42.11476664218432</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9888485660631898</v>
+        <v>0.9888485660631897</v>
       </c>
       <c r="H45" t="n">
-        <v>9.550195361715545</v>
+        <v>9.550195361715543</v>
       </c>
       <c r="I45" t="n">
-        <v>34.04588264735106</v>
+        <v>34.04588264735105</v>
       </c>
       <c r="J45" t="n">
-        <v>93.42450421739989</v>
+        <v>93.42450421739987</v>
       </c>
       <c r="K45" t="n">
         <v>159.6773581436336</v>
       </c>
       <c r="L45" t="n">
-        <v>214.7059134340273</v>
+        <v>214.7059134340272</v>
       </c>
       <c r="M45" t="n">
         <v>250.5516739538178</v>
       </c>
       <c r="N45" t="n">
-        <v>257.1830312236013</v>
+        <v>257.1830312236012</v>
       </c>
       <c r="O45" t="n">
-        <v>235.2722287860959</v>
+        <v>235.2722287860958</v>
       </c>
       <c r="P45" t="n">
         <v>188.8267055669261</v>
@@ -34471,10 +34471,10 @@
         <v>126.2256520469433</v>
       </c>
       <c r="R45" t="n">
-        <v>61.39535219820404</v>
+        <v>61.39535219820403</v>
       </c>
       <c r="S45" t="n">
-        <v>18.36742840911231</v>
+        <v>18.3674284091123</v>
       </c>
       <c r="T45" t="n">
         <v>3.985753650052943</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8290174202111584</v>
+        <v>0.8290174202111583</v>
       </c>
       <c r="H46" t="n">
-        <v>7.370718517877396</v>
+        <v>7.370718517877395</v>
       </c>
       <c r="I46" t="n">
         <v>24.93081478235012</v>
       </c>
       <c r="J46" t="n">
-        <v>58.6115316089289</v>
+        <v>58.61153160892889</v>
       </c>
       <c r="K46" t="n">
-        <v>96.31675118453275</v>
+        <v>96.31675118453273</v>
       </c>
       <c r="L46" t="n">
         <v>123.2522808193935</v>
@@ -34547,10 +34547,10 @@
         <v>100.2658887135386</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.41890415968165</v>
+        <v>69.41890415968163</v>
       </c>
       <c r="R46" t="n">
-        <v>37.27563782149444</v>
+        <v>37.27563782149443</v>
       </c>
       <c r="S46" t="n">
         <v>14.44751267767991</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>144.9103124137733</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>15.00203034879908</v>
+        <v>15.00203034879905</v>
       </c>
       <c r="L11" t="n">
-        <v>55.88585214516371</v>
+        <v>201.6040242452178</v>
       </c>
       <c r="M11" t="n">
-        <v>94.17310931400849</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="N11" t="n">
-        <v>100.3573411815354</v>
+        <v>100.3573411815353</v>
       </c>
       <c r="O11" t="n">
         <v>81.29463062256261</v>
       </c>
       <c r="P11" t="n">
-        <v>123.5153434510074</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="Q11" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.8359191692746</v>
+        <v>174.5782102497145</v>
       </c>
       <c r="L12" t="n">
-        <v>76.15153365415307</v>
+        <v>76.15153365415304</v>
       </c>
       <c r="M12" t="n">
-        <v>108.4176400317995</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="N12" t="n">
-        <v>125.841319140268</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="O12" t="n">
-        <v>92.67598434165143</v>
+        <v>92.6759843416514</v>
       </c>
       <c r="P12" t="n">
-        <v>203.2347660485225</v>
+        <v>54.85229815259586</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5703961094908</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L13" t="n">
         <v>150.8423060797097</v>
@@ -35585,7 +35585,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P13" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>144.9103124137733</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>146.2238083132787</v>
+        <v>182.0724639925379</v>
       </c>
       <c r="L14" t="n">
         <v>203.2347660485225</v>
       </c>
       <c r="M14" t="n">
-        <v>94.17310931400849</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="N14" t="n">
-        <v>100.3573411815354</v>
+        <v>100.3573411815353</v>
       </c>
       <c r="O14" t="n">
         <v>81.29463062256261</v>
       </c>
       <c r="P14" t="n">
-        <v>34.53359060147898</v>
+        <v>34.53359060147892</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K15" t="n">
+        <v>21.83591916927458</v>
+      </c>
+      <c r="L15" t="n">
+        <v>136.215911843451</v>
+      </c>
+      <c r="M15" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="L15" t="n">
-        <v>76.15153365415307</v>
-      </c>
-      <c r="M15" t="n">
-        <v>108.4176400317995</v>
-      </c>
       <c r="N15" t="n">
-        <v>125.841319140268</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="O15" t="n">
-        <v>203.2347660485225</v>
+        <v>92.6759843416514</v>
       </c>
       <c r="P15" t="n">
-        <v>87.84753357189427</v>
+        <v>54.85229815259586</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L16" t="n">
         <v>150.8423060797097</v>
@@ -35822,7 +35822,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P16" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K17" t="n">
-        <v>339.1474429199639</v>
+        <v>260.4770563916642</v>
       </c>
       <c r="L17" t="n">
         <v>473.5470666956141</v>
@@ -35895,16 +35895,16 @@
         <v>543.686642806841</v>
       </c>
       <c r="N17" t="n">
-        <v>471.7344223258195</v>
+        <v>537.7042655935195</v>
       </c>
       <c r="O17" t="n">
         <v>462.094811885308</v>
       </c>
       <c r="P17" t="n">
-        <v>356.3322987729616</v>
+        <v>34.53359060147892</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K18" t="n">
         <v>286.3011561818532</v>
@@ -35971,16 +35971,16 @@
         <v>446.9918789576122</v>
       </c>
       <c r="M18" t="n">
-        <v>574.1227037817994</v>
+        <v>477.6762764243323</v>
       </c>
       <c r="N18" t="n">
-        <v>282.9524103775586</v>
+        <v>605.1836934838215</v>
       </c>
       <c r="O18" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P18" t="n">
-        <v>373.3150667925331</v>
+        <v>54.85229815259586</v>
       </c>
       <c r="Q18" t="n">
         <v>196.3211656967709</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L19" t="n">
         <v>150.8423060797097</v>
@@ -36059,7 +36059,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P19" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>144.9103124137733</v>
       </c>
       <c r="K20" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L20" t="n">
-        <v>473.5470666956141</v>
+        <v>394.8766801673145</v>
       </c>
       <c r="M20" t="n">
-        <v>143.2175481070581</v>
+        <v>543.686642806841</v>
       </c>
       <c r="N20" t="n">
         <v>537.7042655935195</v>
@@ -36138,7 +36138,7 @@
         <v>462.094811885308</v>
       </c>
       <c r="P20" t="n">
-        <v>356.3322987729616</v>
+        <v>34.53359060147892</v>
       </c>
       <c r="Q20" t="n">
         <v>189.5889390183101</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>92.67791289114203</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>286.3011561818532</v>
@@ -36211,13 +36211,13 @@
         <v>574.1227037817994</v>
       </c>
       <c r="N21" t="n">
-        <v>190.2744974864167</v>
+        <v>282.9524103775593</v>
       </c>
       <c r="O21" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P21" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q21" t="n">
         <v>196.3211656967709</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L22" t="n">
         <v>150.8423060797097</v>
@@ -36296,7 +36296,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P22" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>144.9103124137733</v>
       </c>
       <c r="K23" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L23" t="n">
         <v>473.5470666956141</v>
       </c>
       <c r="M23" t="n">
-        <v>143.2175481070581</v>
+        <v>332.8064871253682</v>
       </c>
       <c r="N23" t="n">
         <v>537.7042655935195</v>
@@ -36378,7 +36378,7 @@
         <v>356.3322987729616</v>
       </c>
       <c r="Q23" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K24" t="n">
         <v>286.3011561818532</v>
       </c>
       <c r="L24" t="n">
-        <v>321.0817615481205</v>
+        <v>446.9918789576122</v>
       </c>
       <c r="M24" t="n">
-        <v>574.1227037817994</v>
+        <v>355.5346734811657</v>
       </c>
       <c r="N24" t="n">
-        <v>605.1836934838216</v>
+        <v>605.1836934838215</v>
       </c>
       <c r="O24" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P24" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L25" t="n">
         <v>150.8423060797097</v>
@@ -36533,7 +36533,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P25" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K26" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L26" t="n">
-        <v>407.5772234279142</v>
+        <v>473.5470666956141</v>
       </c>
       <c r="M26" t="n">
         <v>543.686642806841</v>
       </c>
       <c r="N26" t="n">
-        <v>537.7042655935195</v>
+        <v>137.2351708937366</v>
       </c>
       <c r="O26" t="n">
         <v>462.094811885308</v>
@@ -36615,7 +36615,7 @@
         <v>356.3322987729616</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>92.67791289114203</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K27" t="n">
         <v>286.3011561818532</v>
@@ -36682,16 +36682,16 @@
         <v>446.9918789576122</v>
       </c>
       <c r="M27" t="n">
-        <v>553.0758270611241</v>
+        <v>574.1227037817994</v>
       </c>
       <c r="N27" t="n">
-        <v>605.1836934838216</v>
+        <v>190.2744974864167</v>
       </c>
       <c r="O27" t="n">
-        <v>92.67598434165143</v>
+        <v>486.538303618381</v>
       </c>
       <c r="P27" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q27" t="n">
         <v>196.3211656967709</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L28" t="n">
         <v>150.8423060797097</v>
@@ -36770,7 +36770,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P28" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>68.58663028515512</v>
+        <v>144.9103124137733</v>
       </c>
       <c r="K29" t="n">
-        <v>15.00203034879908</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L29" t="n">
-        <v>473.5470666956141</v>
+        <v>73.07797199583132</v>
       </c>
       <c r="M29" t="n">
         <v>543.686642806841</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>286.3011561818532</v>
+        <v>160.3910387723614</v>
       </c>
       <c r="L30" t="n">
-        <v>321.0817615481205</v>
+        <v>446.9918789576122</v>
       </c>
       <c r="M30" t="n">
         <v>574.1227037817994</v>
       </c>
       <c r="N30" t="n">
-        <v>605.1836934838216</v>
+        <v>605.1836934838215</v>
       </c>
       <c r="O30" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P30" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L31" t="n">
         <v>150.8423060797097</v>
@@ -37007,7 +37007,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P31" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>144.9103124137733</v>
       </c>
       <c r="K32" t="n">
-        <v>339.1474429199639</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L32" t="n">
         <v>473.5470666956141</v>
@@ -37080,16 +37080,16 @@
         <v>543.686642806841</v>
       </c>
       <c r="N32" t="n">
-        <v>137.2351708937366</v>
+        <v>537.7042655935195</v>
       </c>
       <c r="O32" t="n">
         <v>462.094811885308</v>
       </c>
       <c r="P32" t="n">
-        <v>356.3322987729616</v>
+        <v>145.4521430914886</v>
       </c>
       <c r="Q32" t="n">
-        <v>189.5889390183101</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K33" t="n">
-        <v>160.3910387723614</v>
+        <v>286.3011561818532</v>
       </c>
       <c r="L33" t="n">
         <v>446.9918789576122</v>
@@ -37159,16 +37159,16 @@
         <v>574.1227037817994</v>
       </c>
       <c r="N33" t="n">
-        <v>605.1836934838216</v>
+        <v>190.2744974864172</v>
       </c>
       <c r="O33" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P33" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>196.3211656967709</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L34" t="n">
         <v>150.8423060797097</v>
@@ -37244,7 +37244,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P34" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>144.9103124137733</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>128.2672872384906</v>
+        <v>339.1474429199638</v>
       </c>
       <c r="L35" t="n">
         <v>473.5470666956141</v>
@@ -37323,7 +37323,7 @@
         <v>462.094811885308</v>
       </c>
       <c r="P35" t="n">
-        <v>356.3322987729616</v>
+        <v>290.3624555052627</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>92.67791289114203</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K36" t="n">
         <v>286.3011561818532</v>
@@ -37393,16 +37393,16 @@
         <v>446.9918789576122</v>
       </c>
       <c r="M36" t="n">
-        <v>159.2135077843946</v>
+        <v>574.1227037817994</v>
       </c>
       <c r="N36" t="n">
-        <v>605.1836934838216</v>
+        <v>190.2744974864177</v>
       </c>
       <c r="O36" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P36" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q36" t="n">
         <v>196.3211656967709</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L37" t="n">
         <v>150.8423060797097</v>
@@ -37481,7 +37481,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P37" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>144.9103124137733</v>
+        <v>68.58663028515612</v>
       </c>
       <c r="K38" t="n">
-        <v>339.1474429199639</v>
+        <v>15.00203034879905</v>
       </c>
       <c r="L38" t="n">
         <v>473.5470666956141</v>
       </c>
       <c r="M38" t="n">
-        <v>332.8064871253678</v>
+        <v>543.686642806841</v>
       </c>
       <c r="N38" t="n">
         <v>537.7042655935195</v>
@@ -37563,7 +37563,7 @@
         <v>356.3322987729616</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>189.5889390183101</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>92.67791289114201</v>
       </c>
       <c r="K39" t="n">
-        <v>21.8359191692746</v>
+        <v>286.3011561818532</v>
       </c>
       <c r="L39" t="n">
-        <v>389.2258328639281</v>
+        <v>76.15153365415304</v>
       </c>
       <c r="M39" t="n">
         <v>574.1227037817994</v>
       </c>
       <c r="N39" t="n">
-        <v>605.1836934838216</v>
+        <v>561.1148427898768</v>
       </c>
       <c r="O39" t="n">
         <v>486.538303618381</v>
       </c>
       <c r="P39" t="n">
-        <v>373.3150667925331</v>
+        <v>373.315066792533</v>
       </c>
       <c r="Q39" t="n">
         <v>196.3211656967709</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L40" t="n">
         <v>150.8423060797097</v>
@@ -37718,7 +37718,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P40" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,25 +37782,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>15.00203034879908</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="L41" t="n">
-        <v>55.88585214516371</v>
+        <v>55.88585214516365</v>
       </c>
       <c r="M41" t="n">
-        <v>203.2347660485225</v>
+        <v>94.17310931400843</v>
       </c>
       <c r="N41" t="n">
-        <v>203.2347660485225</v>
+        <v>100.3573411815353</v>
       </c>
       <c r="O41" t="n">
-        <v>124.1353778556294</v>
+        <v>81.29463062256261</v>
       </c>
       <c r="P41" t="n">
         <v>203.2347660485225</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>66.54709313484481</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>26.19574235378781</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="L42" t="n">
-        <v>76.15153365415307</v>
+        <v>76.15153365415304</v>
       </c>
       <c r="M42" t="n">
+        <v>108.4176400317995</v>
+      </c>
+      <c r="N42" t="n">
+        <v>125.8413191402679</v>
+      </c>
+      <c r="O42" t="n">
         <v>203.2347660485225</v>
       </c>
-      <c r="N42" t="n">
-        <v>203.2347660485225</v>
-      </c>
-      <c r="O42" t="n">
-        <v>92.67598434165143</v>
-      </c>
       <c r="P42" t="n">
-        <v>203.2347660485225</v>
+        <v>54.85229815259586</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>32.99523541929852</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L43" t="n">
         <v>150.8423060797097</v>
@@ -37955,7 +37955,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P43" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38022,19 +38022,19 @@
         <v>203.2347660485225</v>
       </c>
       <c r="L44" t="n">
-        <v>55.88585214516371</v>
+        <v>79.19503912555072</v>
       </c>
       <c r="M44" t="n">
-        <v>94.17310931400849</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="N44" t="n">
-        <v>166.90443431638</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="O44" t="n">
         <v>81.29463062256261</v>
       </c>
       <c r="P44" t="n">
-        <v>203.2347660485225</v>
+        <v>34.53359060147892</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>92.67791289114203</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>21.8359191692746</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="L45" t="n">
-        <v>76.15153365415307</v>
+        <v>124.8884247635997</v>
       </c>
       <c r="M45" t="n">
-        <v>108.4176400317995</v>
+        <v>203.2347660485225</v>
       </c>
       <c r="N45" t="n">
-        <v>125.841319140268</v>
+        <v>125.8413191402679</v>
       </c>
       <c r="O45" t="n">
-        <v>128.629769759156</v>
+        <v>92.6759843416514</v>
       </c>
       <c r="P45" t="n">
-        <v>54.85229815259589</v>
+        <v>54.85229815259586</v>
       </c>
       <c r="Q45" t="n">
-        <v>196.3211656967709</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>74.0472593586499</v>
+        <v>74.04725935864988</v>
       </c>
       <c r="L46" t="n">
         <v>150.8423060797097</v>
@@ -38192,7 +38192,7 @@
         <v>141.762971999886</v>
       </c>
       <c r="P46" t="n">
-        <v>97.5444479784321</v>
+        <v>97.54444797843209</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
